--- a/df6.xlsx
+++ b/df6.xlsx
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>114240</v>
+        <v>114241</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="R16" t="n">
-        <v>9660057.65</v>
+        <v>9660081.65</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>5066</v>
+        <v>5067</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>358700.21</v>
+        <v>358712.21</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>27796</v>
+        <v>27797</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2370012.08</v>
+        <v>2370030.08</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="O162" t="n">
-        <v>289532</v>
+        <v>289533</v>
       </c>
       <c r="P162" t="n">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>3</v>
       </c>
       <c r="R162" t="n">
-        <v>14117257.06</v>
+        <v>14117288.54</v>
       </c>
       <c r="S162" t="n">
         <v>0</v>

--- a/df6.xlsx
+++ b/df6.xlsx
@@ -858,14 +858,18 @@
       <c r="Q11" t="n">
         <v>15</v>
       </c>
-      <c r="R11" t="n">
-        <v>1008904.24</v>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1008904.2400</t>
+        </is>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
-      <c r="T11" t="n">
-        <v>2811.69</v>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2811.6900</t>
+        </is>
       </c>
       <c r="U11" t="inlineStr"/>
     </row>
@@ -907,14 +911,18 @@
       <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R12" t="n">
-        <v>2701615.24</v>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>2701615.2400</t>
+        </is>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
-      <c r="T12" t="n">
-        <v>74</v>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>74.0000</t>
+        </is>
       </c>
       <c r="U12" t="inlineStr"/>
     </row>
@@ -956,14 +964,18 @@
       <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R13" t="n">
-        <v>131092.17</v>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>131092.1700</t>
+        </is>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
-      <c r="T13" t="n">
-        <v>14</v>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>14.0000</t>
+        </is>
       </c>
       <c r="U13" t="inlineStr"/>
     </row>
@@ -1005,14 +1017,18 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="n">
-        <v>63899.18</v>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>63899.1800</t>
+        </is>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
-      <c r="T14" t="n">
-        <v>0</v>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U14" t="inlineStr"/>
     </row>
@@ -1054,14 +1070,18 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="n">
-        <v>73813.36</v>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>73813.3600</t>
+        </is>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
-      <c r="T15" t="n">
-        <v>0</v>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U15" t="inlineStr"/>
     </row>
@@ -1095,7 +1115,7 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>114241</v>
+        <v>114240</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1103,14 +1123,18 @@
       <c r="Q16" t="n">
         <v>8</v>
       </c>
-      <c r="R16" t="n">
-        <v>9660081.65</v>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>9660057.6500</t>
+        </is>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
-      <c r="T16" t="n">
-        <v>107.5</v>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>107.5000</t>
+        </is>
       </c>
       <c r="U16" t="inlineStr"/>
     </row>
@@ -1152,14 +1176,18 @@
       <c r="Q17" t="n">
         <v>22</v>
       </c>
-      <c r="R17" t="n">
-        <v>2287011.85</v>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>2287011.8500</t>
+        </is>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
-      <c r="T17" t="n">
-        <v>1538.68</v>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>1538.6800</t>
+        </is>
       </c>
       <c r="U17" t="inlineStr"/>
     </row>
@@ -1193,7 +1221,7 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1201,14 +1229,18 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="n">
-        <v>358712.21</v>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>358700.2100</t>
+        </is>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U18" t="inlineStr"/>
     </row>
@@ -1250,14 +1282,18 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="n">
-        <v>487556.29</v>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>487556.2900</t>
+        </is>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
-      <c r="T19" t="n">
-        <v>0</v>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U19" t="inlineStr"/>
     </row>
@@ -1299,14 +1335,18 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="n">
-        <v>1910668.76</v>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>1910668.7600</t>
+        </is>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
-      <c r="T20" t="n">
-        <v>0</v>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U20" t="inlineStr"/>
     </row>
@@ -1348,14 +1388,18 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="n">
-        <v>88350.42999999999</v>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>88350.4300</t>
+        </is>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
-      <c r="T21" t="n">
-        <v>0</v>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U21" t="inlineStr"/>
     </row>
@@ -1397,14 +1441,18 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="n">
-        <v>989713.3100000001</v>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>989713.3100</t>
+        </is>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
-      <c r="T22" t="n">
-        <v>0</v>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U22" t="inlineStr"/>
     </row>
@@ -1446,14 +1494,18 @@
       <c r="Q23" t="n">
         <v>17</v>
       </c>
-      <c r="R23" t="n">
-        <v>4691380.83</v>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>4691380.8300</t>
+        </is>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
-      <c r="T23" t="n">
-        <v>1320</v>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>1320.0000</t>
+        </is>
       </c>
       <c r="U23" t="inlineStr"/>
     </row>
@@ -1495,14 +1547,18 @@
       <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="R24" t="n">
-        <v>7133898.93</v>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>7133898.9300</t>
+        </is>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
-      <c r="T24" t="n">
-        <v>40</v>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>40.0000</t>
+        </is>
       </c>
       <c r="U24" t="inlineStr"/>
     </row>
@@ -1544,14 +1600,18 @@
       <c r="Q25" t="n">
         <v>1</v>
       </c>
-      <c r="R25" t="n">
-        <v>842574.46</v>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>842574.4600</t>
+        </is>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
-      <c r="T25" t="n">
-        <v>1000</v>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>1000.0000</t>
+        </is>
       </c>
       <c r="U25" t="inlineStr"/>
     </row>
@@ -1593,14 +1653,18 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="n">
-        <v>4210.58</v>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>4210.5800</t>
+        </is>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
-      <c r="T26" t="n">
-        <v>0</v>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U26" t="inlineStr"/>
     </row>
@@ -1642,14 +1706,18 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="n">
-        <v>2581082.8</v>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>2581082.8000</t>
+        </is>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
-      <c r="T27" t="n">
-        <v>0</v>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U27" t="inlineStr"/>
     </row>
@@ -1691,14 +1759,18 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="n">
-        <v>209624.08</v>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>209624.0800</t>
+        </is>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
-      <c r="T28" t="n">
-        <v>0</v>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U28" t="inlineStr"/>
     </row>
@@ -1740,14 +1812,18 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="n">
-        <v>484218.17</v>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>484218.1700</t>
+        </is>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
-      <c r="T29" t="n">
-        <v>0</v>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U29" t="inlineStr"/>
     </row>
@@ -1789,14 +1865,18 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="n">
-        <v>46538.85</v>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>46538.8500</t>
+        </is>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
-      <c r="T30" t="n">
-        <v>0</v>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U30" t="inlineStr"/>
     </row>
@@ -1838,14 +1918,18 @@
       <c r="Q31" t="n">
         <v>55</v>
       </c>
-      <c r="R31" t="n">
-        <v>20379033.37</v>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>20379033.3700</t>
+        </is>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
-      <c r="T31" t="n">
-        <v>1493</v>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>1493.0000</t>
+        </is>
       </c>
       <c r="U31" t="inlineStr"/>
     </row>
@@ -1887,14 +1971,18 @@
       <c r="Q32" t="n">
         <v>2</v>
       </c>
-      <c r="R32" t="n">
-        <v>5954306.3</v>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>5954306.3000</t>
+        </is>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
-      <c r="T32" t="n">
-        <v>400</v>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>400.0000</t>
+        </is>
       </c>
       <c r="U32" t="inlineStr"/>
     </row>
@@ -1936,14 +2024,18 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="n">
-        <v>132829.01</v>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>132829.0100</t>
+        </is>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
-      <c r="T33" t="n">
-        <v>0</v>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U33" t="inlineStr"/>
     </row>
@@ -1985,14 +2077,18 @@
       <c r="Q34" t="n">
         <v>1</v>
       </c>
-      <c r="R34" t="n">
-        <v>292066.55</v>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>292066.5500</t>
+        </is>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
-      <c r="T34" t="n">
-        <v>16</v>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>16.0000</t>
+        </is>
       </c>
       <c r="U34" t="inlineStr"/>
     </row>
@@ -2026,7 +2122,7 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>27797</v>
+        <v>27796</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2034,14 +2130,18 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="n">
-        <v>2370030.08</v>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>2370012.0800</t>
+        </is>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
-      <c r="T35" t="n">
-        <v>0</v>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U35" t="inlineStr"/>
     </row>
@@ -2083,14 +2183,18 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="n">
-        <v>62873.74</v>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>62873.7400</t>
+        </is>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
-      <c r="T36" t="n">
-        <v>0</v>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U36" t="inlineStr"/>
     </row>
@@ -2132,14 +2236,18 @@
       <c r="Q37" t="n">
         <v>1</v>
       </c>
-      <c r="R37" t="n">
-        <v>3254563.86</v>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>3254563.8600</t>
+        </is>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
-      <c r="T37" t="n">
-        <v>106</v>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>106.0000</t>
+        </is>
       </c>
       <c r="U37" t="inlineStr"/>
     </row>
@@ -2181,14 +2289,18 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="n">
-        <v>241890.73</v>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>241890.7300</t>
+        </is>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
-      <c r="T38" t="n">
-        <v>0</v>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U38" t="inlineStr"/>
     </row>
@@ -2230,14 +2342,18 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="n">
-        <v>1245771.56</v>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>1245771.5600</t>
+        </is>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
-      <c r="T39" t="n">
-        <v>0</v>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U39" t="inlineStr"/>
     </row>
@@ -2343,14 +2459,18 @@
       <c r="Q41" t="n">
         <v>11</v>
       </c>
-      <c r="R41" t="n">
-        <v>36464493.21</v>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>36464493.2100</t>
+        </is>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
-      <c r="T41" t="n">
-        <v>1543.9</v>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>1543.9000</t>
+        </is>
       </c>
       <c r="U41" t="inlineStr"/>
     </row>
@@ -2392,14 +2512,18 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="n">
-        <v>20872.02</v>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>20872.0200</t>
+        </is>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
-      <c r="T42" t="n">
-        <v>0</v>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U42" t="inlineStr"/>
     </row>
@@ -2441,14 +2565,18 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="n">
-        <v>2560.84</v>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>2560.8400</t>
+        </is>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
-      <c r="T43" t="n">
-        <v>0</v>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U43" t="inlineStr"/>
     </row>
@@ -2490,14 +2618,18 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="n">
-        <v>207.61</v>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>207.6100</t>
+        </is>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
-      <c r="T44" t="n">
-        <v>0</v>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U44" t="inlineStr"/>
     </row>
@@ -2539,14 +2671,18 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="n">
-        <v>8225.280000000001</v>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>8225.2800</t>
+        </is>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
-      <c r="T45" t="n">
-        <v>0</v>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U45" t="inlineStr"/>
     </row>
@@ -2588,14 +2724,18 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="n">
-        <v>655.1799999999999</v>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>655.1800</t>
+        </is>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
-      <c r="T46" t="n">
-        <v>0</v>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U46" t="inlineStr"/>
     </row>
@@ -2637,14 +2777,18 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="n">
-        <v>13562.35</v>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>13562.3500</t>
+        </is>
       </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
-      <c r="T47" t="n">
-        <v>0</v>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U47" t="inlineStr"/>
     </row>
@@ -2686,14 +2830,18 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="n">
-        <v>13972.05</v>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>13972.0500</t>
+        </is>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
-      <c r="T48" t="n">
-        <v>0</v>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U48" t="inlineStr"/>
     </row>
@@ -2735,14 +2883,18 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
-      <c r="R49" t="n">
-        <v>177.99</v>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>177.9900</t>
+        </is>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
-      <c r="T49" t="n">
-        <v>0</v>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U49" t="inlineStr"/>
     </row>
@@ -2784,14 +2936,18 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
-      <c r="R50" t="n">
-        <v>510121.9</v>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>510121.9000</t>
+        </is>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
-      <c r="T50" t="n">
-        <v>0</v>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U50" t="inlineStr"/>
     </row>
@@ -2833,14 +2989,18 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="n">
-        <v>71261.28</v>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>71261.2800</t>
+        </is>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
-      <c r="T51" t="n">
-        <v>0</v>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U51" t="inlineStr"/>
     </row>
@@ -2882,14 +3042,18 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="R52" t="n">
-        <v>789.8</v>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>789.8000</t>
+        </is>
       </c>
       <c r="S52" t="n">
         <v>0</v>
       </c>
-      <c r="T52" t="n">
-        <v>0</v>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U52" t="inlineStr"/>
     </row>
@@ -2931,14 +3095,18 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="n">
-        <v>13941.48</v>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>13941.4800</t>
+        </is>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
-      <c r="T53" t="n">
-        <v>0</v>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U53" t="inlineStr"/>
     </row>
@@ -2980,14 +3148,18 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="n">
-        <v>1251.4</v>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>1251.4000</t>
+        </is>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
-      <c r="T54" t="n">
-        <v>0</v>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U54" t="inlineStr"/>
     </row>
@@ -3029,14 +3201,18 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
-      <c r="R55" t="n">
-        <v>635</v>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>635.0000</t>
+        </is>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
-      <c r="T55" t="n">
-        <v>0</v>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U55" t="inlineStr"/>
     </row>
@@ -3078,14 +3254,18 @@
       <c r="Q56" t="n">
         <v>2</v>
       </c>
-      <c r="R56" t="n">
-        <v>918101.72</v>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>918101.7200</t>
+        </is>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
-      <c r="T56" t="n">
-        <v>100</v>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>100.0000</t>
+        </is>
       </c>
       <c r="U56" t="inlineStr"/>
     </row>
@@ -3127,14 +3307,18 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="n">
-        <v>524</v>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>524.0000</t>
+        </is>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
-      <c r="T57" t="n">
-        <v>0</v>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U57" t="inlineStr"/>
     </row>
@@ -3176,14 +3360,18 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="n">
-        <v>1383.33</v>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>1383.3300</t>
+        </is>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
-      <c r="T58" t="n">
-        <v>0</v>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U58" t="inlineStr"/>
     </row>
@@ -3225,14 +3413,18 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="R59" t="n">
-        <v>1155.3</v>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>1155.3000</t>
+        </is>
       </c>
       <c r="S59" t="n">
         <v>0</v>
       </c>
-      <c r="T59" t="n">
-        <v>0</v>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U59" t="inlineStr"/>
     </row>
@@ -3274,14 +3466,18 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="n">
-        <v>8652.99</v>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>8652.9900</t>
+        </is>
       </c>
       <c r="S60" t="n">
         <v>0</v>
       </c>
-      <c r="T60" t="n">
-        <v>0</v>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U60" t="inlineStr"/>
     </row>
@@ -3323,14 +3519,18 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="n">
-        <v>257.5</v>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>257.5000</t>
+        </is>
       </c>
       <c r="S61" t="n">
         <v>0</v>
       </c>
-      <c r="T61" t="n">
-        <v>0</v>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U61" t="inlineStr"/>
     </row>
@@ -3372,14 +3572,18 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="n">
-        <v>74995.19</v>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>74995.1900</t>
+        </is>
       </c>
       <c r="S62" t="n">
         <v>0</v>
       </c>
-      <c r="T62" t="n">
-        <v>0</v>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U62" t="inlineStr"/>
     </row>
@@ -3421,14 +3625,18 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="R63" t="n">
-        <v>1867.6</v>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>1867.6000</t>
+        </is>
       </c>
       <c r="S63" t="n">
         <v>0</v>
       </c>
-      <c r="T63" t="n">
-        <v>0</v>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U63" t="inlineStr"/>
     </row>
@@ -3470,14 +3678,18 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="n">
-        <v>13</v>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>13.0000</t>
+        </is>
       </c>
       <c r="S64" t="n">
         <v>0</v>
       </c>
-      <c r="T64" t="n">
-        <v>0</v>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U64" t="inlineStr"/>
     </row>
@@ -3519,14 +3731,18 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="n">
-        <v>292</v>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>292.0000</t>
+        </is>
       </c>
       <c r="S65" t="n">
         <v>0</v>
       </c>
-      <c r="T65" t="n">
-        <v>0</v>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U65" t="inlineStr"/>
     </row>
@@ -3568,14 +3784,18 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
-      <c r="R66" t="n">
-        <v>1023</v>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>1023.0000</t>
+        </is>
       </c>
       <c r="S66" t="n">
         <v>0</v>
       </c>
-      <c r="T66" t="n">
-        <v>0</v>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U66" t="inlineStr"/>
     </row>
@@ -3617,14 +3837,18 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="n">
-        <v>807501.86</v>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>807501.8600</t>
+        </is>
       </c>
       <c r="S67" t="n">
         <v>0</v>
       </c>
-      <c r="T67" t="n">
-        <v>0</v>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U67" t="inlineStr"/>
     </row>
@@ -3666,14 +3890,18 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" t="n">
-        <v>3505.96</v>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>3505.9600</t>
+        </is>
       </c>
       <c r="S68" t="n">
         <v>0</v>
       </c>
-      <c r="T68" t="n">
-        <v>0</v>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U68" t="inlineStr"/>
     </row>
@@ -3715,14 +3943,18 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" t="n">
-        <v>26487.85</v>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>26487.8500</t>
+        </is>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
-      <c r="T69" t="n">
-        <v>0</v>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U69" t="inlineStr"/>
     </row>
@@ -3764,14 +3996,18 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="n">
-        <v>178540.39</v>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>178540.3900</t>
+        </is>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
-      <c r="T70" t="n">
-        <v>0</v>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U70" t="inlineStr"/>
     </row>
@@ -3813,14 +4049,18 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="n">
-        <v>32179.36</v>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>32179.3600</t>
+        </is>
       </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
-      <c r="T71" t="n">
-        <v>0</v>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U71" t="inlineStr"/>
     </row>
@@ -3862,14 +4102,18 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="n">
-        <v>1694.7</v>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>1694.7000</t>
+        </is>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
-      <c r="T72" t="n">
-        <v>0</v>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U72" t="inlineStr"/>
     </row>
@@ -3911,14 +4155,18 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="n">
-        <v>71.8</v>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>71.8000</t>
+        </is>
       </c>
       <c r="S73" t="n">
         <v>0</v>
       </c>
-      <c r="T73" t="n">
-        <v>0</v>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U73" t="inlineStr"/>
     </row>
@@ -3960,14 +4208,18 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
-      <c r="R74" t="n">
-        <v>21201.11</v>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>21201.1100</t>
+        </is>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
-      <c r="T74" t="n">
-        <v>0</v>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U74" t="inlineStr"/>
     </row>
@@ -4009,14 +4261,18 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
-      <c r="R75" t="n">
-        <v>342.65</v>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>342.6500</t>
+        </is>
       </c>
       <c r="S75" t="n">
         <v>0</v>
       </c>
-      <c r="T75" t="n">
-        <v>0</v>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U75" t="inlineStr"/>
     </row>
@@ -4058,14 +4314,18 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
-      <c r="R76" t="n">
-        <v>68</v>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>68.0000</t>
+        </is>
       </c>
       <c r="S76" t="n">
         <v>0</v>
       </c>
-      <c r="T76" t="n">
-        <v>0</v>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U76" t="inlineStr"/>
     </row>
@@ -4107,14 +4367,18 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="n">
-        <v>65</v>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>65.0000</t>
+        </is>
       </c>
       <c r="S77" t="n">
         <v>0</v>
       </c>
-      <c r="T77" t="n">
-        <v>0</v>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U77" t="inlineStr"/>
     </row>
@@ -4156,14 +4420,18 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
-      <c r="R78" t="n">
-        <v>2074.49</v>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>2074.4900</t>
+        </is>
       </c>
       <c r="S78" t="n">
         <v>0</v>
       </c>
-      <c r="T78" t="n">
-        <v>0</v>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U78" t="inlineStr"/>
     </row>
@@ -4205,14 +4473,18 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
-      <c r="R79" t="n">
-        <v>5245.93</v>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>5245.9300</t>
+        </is>
       </c>
       <c r="S79" t="n">
         <v>0</v>
       </c>
-      <c r="T79" t="n">
-        <v>0</v>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U79" t="inlineStr"/>
     </row>
@@ -4254,14 +4526,18 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
-      <c r="R80" t="n">
-        <v>64431.11</v>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>64431.1100</t>
+        </is>
       </c>
       <c r="S80" t="n">
         <v>0</v>
       </c>
-      <c r="T80" t="n">
-        <v>0</v>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U80" t="inlineStr"/>
     </row>
@@ -4303,14 +4579,18 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
-      <c r="R81" t="n">
-        <v>2876.79</v>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>2876.7900</t>
+        </is>
       </c>
       <c r="S81" t="n">
         <v>0</v>
       </c>
-      <c r="T81" t="n">
-        <v>0</v>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U81" t="inlineStr"/>
     </row>
@@ -4352,14 +4632,18 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
-      <c r="R82" t="n">
-        <v>25</v>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>25.0000</t>
+        </is>
       </c>
       <c r="S82" t="n">
         <v>0</v>
       </c>
-      <c r="T82" t="n">
-        <v>0</v>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U82" t="inlineStr"/>
     </row>
@@ -4401,14 +4685,18 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
-      <c r="R83" t="n">
-        <v>20872.02</v>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>20872.0200</t>
+        </is>
       </c>
       <c r="S83" t="n">
         <v>0</v>
       </c>
-      <c r="T83" t="n">
-        <v>0</v>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U83" t="inlineStr"/>
     </row>
@@ -4450,14 +4738,18 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
-      <c r="R84" t="n">
-        <v>250</v>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>250.0000</t>
+        </is>
       </c>
       <c r="S84" t="n">
         <v>0</v>
       </c>
-      <c r="T84" t="n">
-        <v>0</v>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U84" t="inlineStr"/>
     </row>
@@ -4499,14 +4791,18 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
-      <c r="R85" t="n">
-        <v>183979.42</v>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>183979.4200</t>
+        </is>
       </c>
       <c r="S85" t="n">
         <v>0</v>
       </c>
-      <c r="T85" t="n">
-        <v>0</v>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U85" t="inlineStr"/>
     </row>
@@ -4548,14 +4844,18 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
-      <c r="R86" t="n">
-        <v>13315.55</v>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>13315.5500</t>
+        </is>
       </c>
       <c r="S86" t="n">
         <v>0</v>
       </c>
-      <c r="T86" t="n">
-        <v>0</v>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U86" t="inlineStr"/>
     </row>
@@ -4597,14 +4897,18 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
-      <c r="R87" t="n">
-        <v>2192</v>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>2192.0000</t>
+        </is>
       </c>
       <c r="S87" t="n">
         <v>0</v>
       </c>
-      <c r="T87" t="n">
-        <v>0</v>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U87" t="inlineStr"/>
     </row>
@@ -4646,14 +4950,18 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
-      <c r="R88" t="n">
-        <v>57</v>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>57.0000</t>
+        </is>
       </c>
       <c r="S88" t="n">
         <v>0</v>
       </c>
-      <c r="T88" t="n">
-        <v>0</v>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U88" t="inlineStr"/>
     </row>
@@ -4695,14 +5003,18 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
-      <c r="R89" t="n">
-        <v>88.40000000000001</v>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>88.4000</t>
+        </is>
       </c>
       <c r="S89" t="n">
         <v>0</v>
       </c>
-      <c r="T89" t="n">
-        <v>0</v>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U89" t="inlineStr"/>
     </row>
@@ -4744,14 +5056,18 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
-      <c r="R90" t="n">
-        <v>6126.88</v>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>6126.8800</t>
+        </is>
       </c>
       <c r="S90" t="n">
         <v>0</v>
       </c>
-      <c r="T90" t="n">
-        <v>0</v>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U90" t="inlineStr"/>
     </row>
@@ -4793,14 +5109,18 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
-      <c r="R91" t="n">
-        <v>1245.3</v>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>1245.3000</t>
+        </is>
       </c>
       <c r="S91" t="n">
         <v>0</v>
       </c>
-      <c r="T91" t="n">
-        <v>0</v>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U91" t="inlineStr"/>
     </row>
@@ -4842,14 +5162,18 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="R92" t="n">
-        <v>860.96</v>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>860.9600</t>
+        </is>
       </c>
       <c r="S92" t="n">
         <v>0</v>
       </c>
-      <c r="T92" t="n">
-        <v>0</v>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U92" t="inlineStr"/>
     </row>
@@ -4891,14 +5215,18 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="R93" t="n">
-        <v>57365.26</v>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>57365.2600</t>
+        </is>
       </c>
       <c r="S93" t="n">
         <v>0</v>
       </c>
-      <c r="T93" t="n">
-        <v>0</v>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U93" t="inlineStr"/>
     </row>
@@ -4940,14 +5268,18 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
-      <c r="R94" t="n">
-        <v>77024.75</v>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>77024.7500</t>
+        </is>
       </c>
       <c r="S94" t="n">
         <v>0</v>
       </c>
-      <c r="T94" t="n">
-        <v>0</v>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U94" t="inlineStr"/>
     </row>
@@ -4989,14 +5321,18 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
-      <c r="R95" t="n">
-        <v>11901.57</v>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>11901.5700</t>
+        </is>
       </c>
       <c r="S95" t="n">
         <v>0</v>
       </c>
-      <c r="T95" t="n">
-        <v>0</v>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U95" t="inlineStr"/>
     </row>
@@ -5038,14 +5374,18 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="R96" t="n">
-        <v>4648.79</v>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>4648.7900</t>
+        </is>
       </c>
       <c r="S96" t="n">
         <v>0</v>
       </c>
-      <c r="T96" t="n">
-        <v>0</v>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U96" t="inlineStr"/>
     </row>
@@ -5087,14 +5427,18 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
-      <c r="R97" t="n">
-        <v>385239.44</v>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>385239.4400</t>
+        </is>
       </c>
       <c r="S97" t="n">
         <v>0</v>
       </c>
-      <c r="T97" t="n">
-        <v>0</v>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U97" t="inlineStr"/>
     </row>
@@ -5136,14 +5480,18 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
-      <c r="R98" t="n">
-        <v>158.1</v>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>158.1000</t>
+        </is>
       </c>
       <c r="S98" t="n">
         <v>0</v>
       </c>
-      <c r="T98" t="n">
-        <v>0</v>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U98" t="inlineStr"/>
     </row>
@@ -5185,14 +5533,18 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
-      <c r="R99" t="n">
-        <v>85781.84</v>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>85781.8400</t>
+        </is>
       </c>
       <c r="S99" t="n">
         <v>0</v>
       </c>
-      <c r="T99" t="n">
-        <v>0</v>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U99" t="inlineStr"/>
     </row>
@@ -5234,14 +5586,18 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
-      <c r="R100" t="n">
-        <v>9</v>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>9.0000</t>
+        </is>
       </c>
       <c r="S100" t="n">
         <v>0</v>
       </c>
-      <c r="T100" t="n">
-        <v>0</v>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U100" t="inlineStr"/>
     </row>
@@ -5283,14 +5639,18 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
-      <c r="R101" t="n">
-        <v>13507.98</v>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>13507.9800</t>
+        </is>
       </c>
       <c r="S101" t="n">
         <v>0</v>
       </c>
-      <c r="T101" t="n">
-        <v>0</v>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U101" t="inlineStr"/>
     </row>
@@ -5332,14 +5692,18 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
-      <c r="R102" t="n">
-        <v>110823.37</v>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>110823.3700</t>
+        </is>
       </c>
       <c r="S102" t="n">
         <v>0</v>
       </c>
-      <c r="T102" t="n">
-        <v>0</v>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U102" t="inlineStr"/>
     </row>
@@ -5381,14 +5745,18 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
-      <c r="R103" t="n">
-        <v>8907.1</v>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>8907.1000</t>
+        </is>
       </c>
       <c r="S103" t="n">
         <v>0</v>
       </c>
-      <c r="T103" t="n">
-        <v>0</v>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U103" t="inlineStr"/>
     </row>
@@ -5430,14 +5798,18 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
-      <c r="R104" t="n">
-        <v>562824.71</v>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>562824.7100</t>
+        </is>
       </c>
       <c r="S104" t="n">
         <v>0</v>
       </c>
-      <c r="T104" t="n">
-        <v>0</v>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U104" t="inlineStr"/>
     </row>
@@ -5479,14 +5851,18 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
-      <c r="R105" t="n">
-        <v>55232.82</v>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>55232.8200</t>
+        </is>
       </c>
       <c r="S105" t="n">
         <v>0</v>
       </c>
-      <c r="T105" t="n">
-        <v>0</v>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U105" t="inlineStr"/>
     </row>
@@ -5528,14 +5904,18 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
-      <c r="R106" t="n">
-        <v>10268.34</v>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>10268.3400</t>
+        </is>
       </c>
       <c r="S106" t="n">
         <v>0</v>
       </c>
-      <c r="T106" t="n">
-        <v>0</v>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U106" t="inlineStr"/>
     </row>
@@ -5577,14 +5957,18 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
-      <c r="R107" t="n">
-        <v>8763.059999999999</v>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>8763.0600</t>
+        </is>
       </c>
       <c r="S107" t="n">
         <v>0</v>
       </c>
-      <c r="T107" t="n">
-        <v>0</v>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U107" t="inlineStr"/>
     </row>
@@ -5626,14 +6010,18 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
-      <c r="R108" t="n">
-        <v>978.21</v>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>978.2100</t>
+        </is>
       </c>
       <c r="S108" t="n">
         <v>0</v>
       </c>
-      <c r="T108" t="n">
-        <v>0</v>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U108" t="inlineStr"/>
     </row>
@@ -5675,14 +6063,18 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
-      <c r="R109" t="n">
-        <v>69</v>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>69.0000</t>
+        </is>
       </c>
       <c r="S109" t="n">
         <v>0</v>
       </c>
-      <c r="T109" t="n">
-        <v>0</v>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U109" t="inlineStr"/>
     </row>
@@ -5724,14 +6116,18 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
-      <c r="R110" t="n">
-        <v>1060.7</v>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>1060.7000</t>
+        </is>
       </c>
       <c r="S110" t="n">
         <v>0</v>
       </c>
-      <c r="T110" t="n">
-        <v>0</v>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U110" t="inlineStr"/>
     </row>
@@ -5773,14 +6169,18 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="R111" t="n">
-        <v>50</v>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>50.0000</t>
+        </is>
       </c>
       <c r="S111" t="n">
         <v>0</v>
       </c>
-      <c r="T111" t="n">
-        <v>0</v>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U111" t="inlineStr"/>
     </row>
@@ -5822,14 +6222,18 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
-      <c r="R112" t="n">
-        <v>14269.25</v>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>14269.2500</t>
+        </is>
       </c>
       <c r="S112" t="n">
         <v>0</v>
       </c>
-      <c r="T112" t="n">
-        <v>0</v>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U112" t="inlineStr"/>
     </row>
@@ -5871,14 +6275,18 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
-      <c r="R113" t="n">
-        <v>239</v>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>239.0000</t>
+        </is>
       </c>
       <c r="S113" t="n">
         <v>0</v>
       </c>
-      <c r="T113" t="n">
-        <v>0</v>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U113" t="inlineStr"/>
     </row>
@@ -5920,14 +6328,18 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
-      <c r="R114" t="n">
-        <v>335.9</v>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>335.9000</t>
+        </is>
       </c>
       <c r="S114" t="n">
         <v>0</v>
       </c>
-      <c r="T114" t="n">
-        <v>0</v>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U114" t="inlineStr"/>
     </row>
@@ -5969,14 +6381,18 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
-      <c r="R115" t="n">
-        <v>1597.02</v>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>1597.0200</t>
+        </is>
       </c>
       <c r="S115" t="n">
         <v>0</v>
       </c>
-      <c r="T115" t="n">
-        <v>0</v>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U115" t="inlineStr"/>
     </row>
@@ -6018,14 +6434,18 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
-      <c r="R116" t="n">
-        <v>100583.83</v>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>100583.8300</t>
+        </is>
       </c>
       <c r="S116" t="n">
         <v>0</v>
       </c>
-      <c r="T116" t="n">
-        <v>0</v>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U116" t="inlineStr"/>
     </row>
@@ -6067,14 +6487,18 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
-      <c r="R117" t="n">
-        <v>54883.7</v>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>54883.7000</t>
+        </is>
       </c>
       <c r="S117" t="n">
         <v>0</v>
       </c>
-      <c r="T117" t="n">
-        <v>0</v>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U117" t="inlineStr"/>
     </row>
@@ -6116,14 +6540,18 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
-      <c r="R118" t="n">
-        <v>8917.34</v>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>8917.3400</t>
+        </is>
       </c>
       <c r="S118" t="n">
         <v>0</v>
       </c>
-      <c r="T118" t="n">
-        <v>0</v>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U118" t="inlineStr"/>
     </row>
@@ -6165,14 +6593,18 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
-      <c r="R119" t="n">
-        <v>17949.99</v>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>17949.9900</t>
+        </is>
       </c>
       <c r="S119" t="n">
         <v>0</v>
       </c>
-      <c r="T119" t="n">
-        <v>0</v>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U119" t="inlineStr"/>
     </row>
@@ -6214,14 +6646,18 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
-      <c r="R120" t="n">
-        <v>4435.21</v>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>4435.2100</t>
+        </is>
       </c>
       <c r="S120" t="n">
         <v>0</v>
       </c>
-      <c r="T120" t="n">
-        <v>0</v>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U120" t="inlineStr"/>
     </row>
@@ -6263,14 +6699,18 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
-      <c r="R121" t="n">
-        <v>2160.43</v>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>2160.4300</t>
+        </is>
       </c>
       <c r="S121" t="n">
         <v>0</v>
       </c>
-      <c r="T121" t="n">
-        <v>0</v>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U121" t="inlineStr"/>
     </row>
@@ -6312,14 +6752,18 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
-      <c r="R122" t="n">
-        <v>2784.55</v>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>2784.5500</t>
+        </is>
       </c>
       <c r="S122" t="n">
         <v>0</v>
       </c>
-      <c r="T122" t="n">
-        <v>0</v>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U122" t="inlineStr"/>
     </row>
@@ -6361,14 +6805,18 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
-      <c r="R123" t="n">
-        <v>1387.97</v>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>1387.9700</t>
+        </is>
       </c>
       <c r="S123" t="n">
         <v>0</v>
       </c>
-      <c r="T123" t="n">
-        <v>0</v>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U123" t="inlineStr"/>
     </row>
@@ -6410,14 +6858,18 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
-      <c r="R124" t="n">
-        <v>544.33</v>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>544.3300</t>
+        </is>
       </c>
       <c r="S124" t="n">
         <v>0</v>
       </c>
-      <c r="T124" t="n">
-        <v>0</v>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U124" t="inlineStr"/>
     </row>
@@ -6459,14 +6911,18 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
-      <c r="R125" t="n">
-        <v>66242.42</v>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>66242.4200</t>
+        </is>
       </c>
       <c r="S125" t="n">
         <v>0</v>
       </c>
-      <c r="T125" t="n">
-        <v>0</v>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U125" t="inlineStr"/>
     </row>
@@ -6508,14 +6964,18 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
-      <c r="R126" t="n">
-        <v>699.14</v>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>699.1400</t>
+        </is>
       </c>
       <c r="S126" t="n">
         <v>0</v>
       </c>
-      <c r="T126" t="n">
-        <v>0</v>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U126" t="inlineStr"/>
     </row>
@@ -6557,14 +7017,18 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
-      <c r="R127" t="n">
-        <v>2409.24</v>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>2409.2400</t>
+        </is>
       </c>
       <c r="S127" t="n">
         <v>0</v>
       </c>
-      <c r="T127" t="n">
-        <v>0</v>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U127" t="inlineStr"/>
     </row>
@@ -6606,14 +7070,18 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
-      <c r="R128" t="n">
-        <v>16785.91</v>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>16785.9100</t>
+        </is>
       </c>
       <c r="S128" t="n">
         <v>0</v>
       </c>
-      <c r="T128" t="n">
-        <v>0</v>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U128" t="inlineStr"/>
     </row>
@@ -6655,14 +7123,18 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
-      <c r="R129" t="n">
-        <v>22385.55</v>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>22385.5500</t>
+        </is>
       </c>
       <c r="S129" t="n">
         <v>0</v>
       </c>
-      <c r="T129" t="n">
-        <v>0</v>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U129" t="inlineStr"/>
     </row>
@@ -6704,14 +7176,18 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
-      <c r="R130" t="n">
-        <v>601.1</v>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>601.1000</t>
+        </is>
       </c>
       <c r="S130" t="n">
         <v>0</v>
       </c>
-      <c r="T130" t="n">
-        <v>0</v>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U130" t="inlineStr"/>
     </row>
@@ -6753,14 +7229,18 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
-      <c r="R131" t="n">
-        <v>1807.06</v>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>1807.0600</t>
+        </is>
       </c>
       <c r="S131" t="n">
         <v>0</v>
       </c>
-      <c r="T131" t="n">
-        <v>0</v>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U131" t="inlineStr"/>
     </row>
@@ -6802,14 +7282,18 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
-      <c r="R132" t="n">
-        <v>6909.8</v>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>6909.8000</t>
+        </is>
       </c>
       <c r="S132" t="n">
         <v>0</v>
       </c>
-      <c r="T132" t="n">
-        <v>0</v>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U132" t="inlineStr"/>
     </row>
@@ -6851,14 +7335,18 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
-      <c r="R133" t="n">
-        <v>62.16</v>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>62.1600</t>
+        </is>
       </c>
       <c r="S133" t="n">
         <v>0</v>
       </c>
-      <c r="T133" t="n">
-        <v>0</v>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U133" t="inlineStr"/>
     </row>
@@ -6900,14 +7388,18 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
-      <c r="R134" t="n">
-        <v>880</v>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>880.0000</t>
+        </is>
       </c>
       <c r="S134" t="n">
         <v>0</v>
       </c>
-      <c r="T134" t="n">
-        <v>0</v>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U134" t="inlineStr"/>
     </row>
@@ -6949,14 +7441,18 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
-      <c r="R135" t="n">
-        <v>17965.35</v>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>17965.3500</t>
+        </is>
       </c>
       <c r="S135" t="n">
         <v>0</v>
       </c>
-      <c r="T135" t="n">
-        <v>0</v>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U135" t="inlineStr"/>
     </row>
@@ -6998,14 +7494,18 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
-      <c r="R136" t="n">
-        <v>16883.08</v>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>16883.0800</t>
+        </is>
       </c>
       <c r="S136" t="n">
         <v>0</v>
       </c>
-      <c r="T136" t="n">
-        <v>0</v>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U136" t="inlineStr"/>
     </row>
@@ -7047,14 +7547,18 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
-      <c r="R137" t="n">
-        <v>98035.59</v>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>98035.5900</t>
+        </is>
       </c>
       <c r="S137" t="n">
         <v>0</v>
       </c>
-      <c r="T137" t="n">
-        <v>0</v>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U137" t="inlineStr"/>
     </row>
@@ -7096,14 +7600,18 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
-      <c r="R138" t="n">
-        <v>1610.76</v>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>1610.7600</t>
+        </is>
       </c>
       <c r="S138" t="n">
         <v>0</v>
       </c>
-      <c r="T138" t="n">
-        <v>0</v>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U138" t="inlineStr"/>
     </row>
@@ -7145,14 +7653,18 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
-      <c r="R139" t="n">
-        <v>49</v>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>49.0000</t>
+        </is>
       </c>
       <c r="S139" t="n">
         <v>0</v>
       </c>
-      <c r="T139" t="n">
-        <v>0</v>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U139" t="inlineStr"/>
     </row>
@@ -7194,14 +7706,18 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
-      <c r="R140" t="n">
-        <v>3145.3</v>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>3145.3000</t>
+        </is>
       </c>
       <c r="S140" t="n">
         <v>0</v>
       </c>
-      <c r="T140" t="n">
-        <v>0</v>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U140" t="inlineStr"/>
     </row>
@@ -7243,14 +7759,18 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
-      <c r="R141" t="n">
-        <v>262258.31</v>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>262258.3100</t>
+        </is>
       </c>
       <c r="S141" t="n">
         <v>0</v>
       </c>
-      <c r="T141" t="n">
-        <v>0</v>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U141" t="inlineStr"/>
     </row>
@@ -7292,14 +7812,18 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
-      <c r="R142" t="n">
-        <v>199.44</v>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>199.4400</t>
+        </is>
       </c>
       <c r="S142" t="n">
         <v>0</v>
       </c>
-      <c r="T142" t="n">
-        <v>0</v>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U142" t="inlineStr"/>
     </row>
@@ -7341,14 +7865,18 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
-      <c r="R143" t="n">
-        <v>43159.26</v>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>43159.2600</t>
+        </is>
       </c>
       <c r="S143" t="n">
         <v>0</v>
       </c>
-      <c r="T143" t="n">
-        <v>0</v>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U143" t="inlineStr"/>
     </row>
@@ -7390,14 +7918,18 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
-      <c r="R144" t="n">
-        <v>186</v>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>186.0000</t>
+        </is>
       </c>
       <c r="S144" t="n">
         <v>0</v>
       </c>
-      <c r="T144" t="n">
-        <v>0</v>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U144" t="inlineStr"/>
     </row>
@@ -7439,14 +7971,18 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
-      <c r="R145" t="n">
-        <v>1000</v>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>1000.0000</t>
+        </is>
       </c>
       <c r="S145" t="n">
         <v>0</v>
       </c>
-      <c r="T145" t="n">
-        <v>0</v>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U145" t="inlineStr"/>
     </row>
@@ -7488,14 +8024,18 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
-      <c r="R146" t="n">
-        <v>106820.55</v>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>106820.5500</t>
+        </is>
       </c>
       <c r="S146" t="n">
         <v>0</v>
       </c>
-      <c r="T146" t="n">
-        <v>0</v>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U146" t="inlineStr"/>
     </row>
@@ -7537,14 +8077,18 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
-      <c r="R147" t="n">
-        <v>67</v>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>67.0000</t>
+        </is>
       </c>
       <c r="S147" t="n">
         <v>0</v>
       </c>
-      <c r="T147" t="n">
-        <v>0</v>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U147" t="inlineStr"/>
     </row>
@@ -7586,14 +8130,18 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
-      <c r="R148" t="n">
-        <v>50</v>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>50.0000</t>
+        </is>
       </c>
       <c r="S148" t="n">
         <v>0</v>
       </c>
-      <c r="T148" t="n">
-        <v>0</v>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U148" t="inlineStr"/>
     </row>
@@ -7635,14 +8183,18 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
-      <c r="R149" t="n">
-        <v>37782.85</v>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>37782.8500</t>
+        </is>
       </c>
       <c r="S149" t="n">
         <v>0</v>
       </c>
-      <c r="T149" t="n">
-        <v>0</v>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U149" t="inlineStr"/>
     </row>
@@ -7684,14 +8236,18 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
-      <c r="R150" t="n">
-        <v>781.25</v>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>781.2500</t>
+        </is>
       </c>
       <c r="S150" t="n">
         <v>0</v>
       </c>
-      <c r="T150" t="n">
-        <v>0</v>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U150" t="inlineStr"/>
     </row>
@@ -7733,14 +8289,18 @@
       <c r="Q151" t="n">
         <v>1</v>
       </c>
-      <c r="R151" t="n">
-        <v>1024804.87</v>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>1024804.8700</t>
+        </is>
       </c>
       <c r="S151" t="n">
         <v>0</v>
       </c>
-      <c r="T151" t="n">
-        <v>8</v>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>8.0000</t>
+        </is>
       </c>
       <c r="U151" t="inlineStr"/>
     </row>
@@ -7782,14 +8342,18 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
-      <c r="R152" t="n">
-        <v>56884.44</v>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>56884.4400</t>
+        </is>
       </c>
       <c r="S152" t="n">
         <v>0</v>
       </c>
-      <c r="T152" t="n">
-        <v>0</v>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U152" t="inlineStr"/>
     </row>
@@ -7831,14 +8395,18 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
-      <c r="R153" t="n">
-        <v>4062.71</v>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>4062.7100</t>
+        </is>
       </c>
       <c r="S153" t="n">
         <v>0</v>
       </c>
-      <c r="T153" t="n">
-        <v>0</v>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U153" t="inlineStr"/>
     </row>
@@ -7880,14 +8448,18 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
-      <c r="R154" t="n">
-        <v>1046.83</v>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>1046.8300</t>
+        </is>
       </c>
       <c r="S154" t="n">
         <v>0</v>
       </c>
-      <c r="T154" t="n">
-        <v>0</v>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U154" t="inlineStr"/>
     </row>
@@ -7929,14 +8501,18 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
-      <c r="R155" t="n">
-        <v>25605.61</v>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>25605.6100</t>
+        </is>
       </c>
       <c r="S155" t="n">
         <v>0</v>
       </c>
-      <c r="T155" t="n">
-        <v>0</v>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U155" t="inlineStr"/>
     </row>
@@ -7978,14 +8554,18 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
-      <c r="R156" t="n">
-        <v>1370.42</v>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>1370.4200</t>
+        </is>
       </c>
       <c r="S156" t="n">
         <v>0</v>
       </c>
-      <c r="T156" t="n">
-        <v>0</v>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U156" t="inlineStr"/>
     </row>
@@ -8027,14 +8607,18 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
-      <c r="R157" t="n">
-        <v>220.17</v>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>220.1700</t>
+        </is>
       </c>
       <c r="S157" t="n">
         <v>0</v>
       </c>
-      <c r="T157" t="n">
-        <v>0</v>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U157" t="inlineStr"/>
     </row>
@@ -8076,14 +8660,18 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
-      <c r="R158" t="n">
-        <v>193606.13</v>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>193606.1300</t>
+        </is>
       </c>
       <c r="S158" t="n">
         <v>0</v>
       </c>
-      <c r="T158" t="n">
-        <v>0</v>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U158" t="inlineStr"/>
     </row>
@@ -8125,14 +8713,18 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
-      <c r="R159" t="n">
-        <v>154.99</v>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>154.9900</t>
+        </is>
       </c>
       <c r="S159" t="n">
         <v>0</v>
       </c>
-      <c r="T159" t="n">
-        <v>0</v>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U159" t="inlineStr"/>
     </row>
@@ -8174,14 +8766,18 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
-      <c r="R160" t="n">
-        <v>903</v>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>903.0000</t>
+        </is>
       </c>
       <c r="S160" t="n">
         <v>0</v>
       </c>
-      <c r="T160" t="n">
-        <v>0</v>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U160" t="inlineStr"/>
     </row>
@@ -8223,14 +8819,18 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
-      <c r="R161" t="n">
-        <v>5189.11</v>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>5189.1100</t>
+        </is>
       </c>
       <c r="S161" t="n">
         <v>0</v>
       </c>
-      <c r="T161" t="n">
-        <v>0</v>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U161" t="inlineStr"/>
     </row>
@@ -8264,7 +8864,7 @@
         </is>
       </c>
       <c r="O162" t="n">
-        <v>289533</v>
+        <v>289532</v>
       </c>
       <c r="P162" t="n">
         <v>0</v>
@@ -8272,14 +8872,18 @@
       <c r="Q162" t="n">
         <v>3</v>
       </c>
-      <c r="R162" t="n">
-        <v>14117288.54</v>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>14117257.0600</t>
+        </is>
       </c>
       <c r="S162" t="n">
         <v>0</v>
       </c>
-      <c r="T162" t="n">
-        <v>13</v>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>13.0000</t>
+        </is>
       </c>
       <c r="U162" t="inlineStr"/>
     </row>
@@ -8321,14 +8925,18 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
-      <c r="R163" t="n">
-        <v>2161517.76</v>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>2161517.7600</t>
+        </is>
       </c>
       <c r="S163" t="n">
         <v>0</v>
       </c>
-      <c r="T163" t="n">
-        <v>0</v>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U163" t="inlineStr"/>
     </row>
@@ -8370,14 +8978,18 @@
       <c r="Q164" t="n">
         <v>1</v>
       </c>
-      <c r="R164" t="n">
-        <v>9187784.75</v>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>9187784.7500</t>
+        </is>
       </c>
       <c r="S164" t="n">
         <v>0</v>
       </c>
-      <c r="T164" t="n">
-        <v>500</v>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>500.0000</t>
+        </is>
       </c>
       <c r="U164" t="inlineStr"/>
     </row>
@@ -8419,14 +9031,18 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
-      <c r="R165" t="n">
-        <v>4563.39</v>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>4563.3900</t>
+        </is>
       </c>
       <c r="S165" t="n">
         <v>0</v>
       </c>
-      <c r="T165" t="n">
-        <v>0</v>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U165" t="inlineStr"/>
     </row>
@@ -8468,14 +9084,18 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
-      <c r="R166" t="n">
-        <v>14158.4</v>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>14158.4000</t>
+        </is>
       </c>
       <c r="S166" t="n">
         <v>0</v>
       </c>
-      <c r="T166" t="n">
-        <v>0</v>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U166" t="inlineStr"/>
     </row>
@@ -8517,14 +9137,18 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
-      <c r="R167" t="n">
-        <v>151</v>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>151.0000</t>
+        </is>
       </c>
       <c r="S167" t="n">
         <v>0</v>
       </c>
-      <c r="T167" t="n">
-        <v>0</v>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U167" t="inlineStr"/>
     </row>
@@ -8566,14 +9190,18 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
-      <c r="R168" t="n">
-        <v>23295.95</v>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>23295.9500</t>
+        </is>
       </c>
       <c r="S168" t="n">
         <v>0</v>
       </c>
-      <c r="T168" t="n">
-        <v>0</v>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U168" t="inlineStr"/>
     </row>
@@ -8615,14 +9243,18 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
-      <c r="R169" t="n">
-        <v>24</v>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>24.0000</t>
+        </is>
       </c>
       <c r="S169" t="n">
         <v>0</v>
       </c>
-      <c r="T169" t="n">
-        <v>0</v>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U169" t="inlineStr"/>
     </row>
@@ -8664,14 +9296,18 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
-      <c r="R170" t="n">
-        <v>1091.8</v>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>1091.8000</t>
+        </is>
       </c>
       <c r="S170" t="n">
         <v>0</v>
       </c>
-      <c r="T170" t="n">
-        <v>0</v>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U170" t="inlineStr"/>
     </row>
@@ -8713,14 +9349,18 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
-      <c r="R171" t="n">
-        <v>1694.24</v>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>1694.2400</t>
+        </is>
       </c>
       <c r="S171" t="n">
         <v>0</v>
       </c>
-      <c r="T171" t="n">
-        <v>0</v>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
       </c>
       <c r="U171" t="inlineStr"/>
     </row>

--- a/df6.xlsx
+++ b/df6.xlsx
@@ -694,12 +694,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t xml:space="preserve">M11_OKP.UKP_PRP_ </t>
+          <t>M11_OKP.UKP_PRP_</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t xml:space="preserve">M11_OKP.IT_PRP_ </t>
+          <t>M11_OKP.IT_PRP_</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -858,18 +858,14 @@
       <c r="Q11" t="n">
         <v>15</v>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>1008904.2400</t>
-        </is>
+      <c r="R11" t="n">
+        <v>1008904.24</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>2811.6900</t>
-        </is>
+      <c r="T11" t="n">
+        <v>2811.69</v>
       </c>
       <c r="U11" t="inlineStr"/>
     </row>
@@ -911,18 +907,14 @@
       <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>2701615.2400</t>
-        </is>
+      <c r="R12" t="n">
+        <v>2701615.24</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>74.0000</t>
-        </is>
+      <c r="T12" t="n">
+        <v>74</v>
       </c>
       <c r="U12" t="inlineStr"/>
     </row>
@@ -964,18 +956,14 @@
       <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>131092.1700</t>
-        </is>
+      <c r="R13" t="n">
+        <v>131092.17</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>14.0000</t>
-        </is>
+      <c r="T13" t="n">
+        <v>14</v>
       </c>
       <c r="U13" t="inlineStr"/>
     </row>
@@ -1017,18 +1005,14 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>63899.1800</t>
-        </is>
+      <c r="R14" t="n">
+        <v>63899.18</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T14" t="n">
+        <v>0</v>
       </c>
       <c r="U14" t="inlineStr"/>
     </row>
@@ -1070,18 +1054,14 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>73813.3600</t>
-        </is>
+      <c r="R15" t="n">
+        <v>73813.36</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T15" t="n">
+        <v>0</v>
       </c>
       <c r="U15" t="inlineStr"/>
     </row>
@@ -1123,18 +1103,14 @@
       <c r="Q16" t="n">
         <v>8</v>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>9660057.6500</t>
-        </is>
+      <c r="R16" t="n">
+        <v>9660057.65</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>107.5000</t>
-        </is>
+      <c r="T16" t="n">
+        <v>107.5</v>
       </c>
       <c r="U16" t="inlineStr"/>
     </row>
@@ -1176,18 +1152,14 @@
       <c r="Q17" t="n">
         <v>22</v>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>2287011.8500</t>
-        </is>
+      <c r="R17" t="n">
+        <v>2287011.85</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>1538.6800</t>
-        </is>
+      <c r="T17" t="n">
+        <v>1538.68</v>
       </c>
       <c r="U17" t="inlineStr"/>
     </row>
@@ -1229,18 +1201,14 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>358700.2100</t>
-        </is>
+      <c r="R18" t="n">
+        <v>358700.21</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T18" t="n">
+        <v>0</v>
       </c>
       <c r="U18" t="inlineStr"/>
     </row>
@@ -1282,18 +1250,14 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>487556.2900</t>
-        </is>
+      <c r="R19" t="n">
+        <v>487556.29</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T19" t="n">
+        <v>0</v>
       </c>
       <c r="U19" t="inlineStr"/>
     </row>
@@ -1335,18 +1299,14 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>1910668.7600</t>
-        </is>
+      <c r="R20" t="n">
+        <v>1910668.76</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T20" t="n">
+        <v>0</v>
       </c>
       <c r="U20" t="inlineStr"/>
     </row>
@@ -1388,18 +1348,14 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>88350.4300</t>
-        </is>
+      <c r="R21" t="n">
+        <v>88350.42999999999</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T21" t="n">
+        <v>0</v>
       </c>
       <c r="U21" t="inlineStr"/>
     </row>
@@ -1441,18 +1397,14 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>989713.3100</t>
-        </is>
+      <c r="R22" t="n">
+        <v>989713.3100000001</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T22" t="n">
+        <v>0</v>
       </c>
       <c r="U22" t="inlineStr"/>
     </row>
@@ -1494,18 +1446,14 @@
       <c r="Q23" t="n">
         <v>17</v>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>4691380.8300</t>
-        </is>
+      <c r="R23" t="n">
+        <v>4691380.83</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>1320.0000</t>
-        </is>
+      <c r="T23" t="n">
+        <v>1320</v>
       </c>
       <c r="U23" t="inlineStr"/>
     </row>
@@ -1547,18 +1495,14 @@
       <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>7133898.9300</t>
-        </is>
+      <c r="R24" t="n">
+        <v>7133898.93</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>40.0000</t>
-        </is>
+      <c r="T24" t="n">
+        <v>40</v>
       </c>
       <c r="U24" t="inlineStr"/>
     </row>
@@ -1600,18 +1544,14 @@
       <c r="Q25" t="n">
         <v>1</v>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>842574.4600</t>
-        </is>
+      <c r="R25" t="n">
+        <v>842574.46</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>1000.0000</t>
-        </is>
+      <c r="T25" t="n">
+        <v>1000</v>
       </c>
       <c r="U25" t="inlineStr"/>
     </row>
@@ -1653,18 +1593,14 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>4210.5800</t>
-        </is>
+      <c r="R26" t="n">
+        <v>4210.58</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T26" t="n">
+        <v>0</v>
       </c>
       <c r="U26" t="inlineStr"/>
     </row>
@@ -1706,18 +1642,14 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>2581082.8000</t>
-        </is>
+      <c r="R27" t="n">
+        <v>2581082.8</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T27" t="n">
+        <v>0</v>
       </c>
       <c r="U27" t="inlineStr"/>
     </row>
@@ -1759,18 +1691,14 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>209624.0800</t>
-        </is>
+      <c r="R28" t="n">
+        <v>209624.08</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T28" t="n">
+        <v>0</v>
       </c>
       <c r="U28" t="inlineStr"/>
     </row>
@@ -1812,18 +1740,14 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>484218.1700</t>
-        </is>
+      <c r="R29" t="n">
+        <v>484218.17</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T29" t="n">
+        <v>0</v>
       </c>
       <c r="U29" t="inlineStr"/>
     </row>
@@ -1865,18 +1789,14 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>46538.8500</t>
-        </is>
+      <c r="R30" t="n">
+        <v>46538.85</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T30" t="n">
+        <v>0</v>
       </c>
       <c r="U30" t="inlineStr"/>
     </row>
@@ -1918,18 +1838,14 @@
       <c r="Q31" t="n">
         <v>55</v>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>20379033.3700</t>
-        </is>
+      <c r="R31" t="n">
+        <v>20379033.37</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>1493.0000</t>
-        </is>
+      <c r="T31" t="n">
+        <v>1493</v>
       </c>
       <c r="U31" t="inlineStr"/>
     </row>
@@ -1971,18 +1887,14 @@
       <c r="Q32" t="n">
         <v>2</v>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>5954306.3000</t>
-        </is>
+      <c r="R32" t="n">
+        <v>5954306.3</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>400.0000</t>
-        </is>
+      <c r="T32" t="n">
+        <v>400</v>
       </c>
       <c r="U32" t="inlineStr"/>
     </row>
@@ -2024,18 +1936,14 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>132829.0100</t>
-        </is>
+      <c r="R33" t="n">
+        <v>132829.01</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T33" t="n">
+        <v>0</v>
       </c>
       <c r="U33" t="inlineStr"/>
     </row>
@@ -2077,18 +1985,14 @@
       <c r="Q34" t="n">
         <v>1</v>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>292066.5500</t>
-        </is>
+      <c r="R34" t="n">
+        <v>292066.55</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>16.0000</t>
-        </is>
+      <c r="T34" t="n">
+        <v>16</v>
       </c>
       <c r="U34" t="inlineStr"/>
     </row>
@@ -2130,18 +2034,14 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>2370012.0800</t>
-        </is>
+      <c r="R35" t="n">
+        <v>2370012.08</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T35" t="n">
+        <v>0</v>
       </c>
       <c r="U35" t="inlineStr"/>
     </row>
@@ -2183,18 +2083,14 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>62873.7400</t>
-        </is>
+      <c r="R36" t="n">
+        <v>62873.74</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T36" t="n">
+        <v>0</v>
       </c>
       <c r="U36" t="inlineStr"/>
     </row>
@@ -2236,18 +2132,14 @@
       <c r="Q37" t="n">
         <v>1</v>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>3254563.8600</t>
-        </is>
+      <c r="R37" t="n">
+        <v>3254563.86</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>106.0000</t>
-        </is>
+      <c r="T37" t="n">
+        <v>106</v>
       </c>
       <c r="U37" t="inlineStr"/>
     </row>
@@ -2289,18 +2181,14 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>241890.7300</t>
-        </is>
+      <c r="R38" t="n">
+        <v>241890.73</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T38" t="n">
+        <v>0</v>
       </c>
       <c r="U38" t="inlineStr"/>
     </row>
@@ -2342,18 +2230,14 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>1245771.5600</t>
-        </is>
+      <c r="R39" t="n">
+        <v>1245771.56</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T39" t="n">
+        <v>0</v>
       </c>
       <c r="U39" t="inlineStr"/>
     </row>
@@ -2459,18 +2343,14 @@
       <c r="Q41" t="n">
         <v>11</v>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>36464493.2100</t>
-        </is>
+      <c r="R41" t="n">
+        <v>36464493.21</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>1543.9000</t>
-        </is>
+      <c r="T41" t="n">
+        <v>1543.9</v>
       </c>
       <c r="U41" t="inlineStr"/>
     </row>
@@ -2495,7 +2375,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Pozostałe kraje</t>
+          <t>Pozostale kraje</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -2512,18 +2392,14 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>20872.0200</t>
-        </is>
+      <c r="R42" t="n">
+        <v>20872.02</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T42" t="n">
+        <v>0</v>
       </c>
       <c r="U42" t="inlineStr"/>
     </row>
@@ -2565,18 +2441,14 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>2560.8400</t>
-        </is>
+      <c r="R43" t="n">
+        <v>2560.84</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T43" t="n">
+        <v>0</v>
       </c>
       <c r="U43" t="inlineStr"/>
     </row>
@@ -2618,18 +2490,14 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>207.6100</t>
-        </is>
+      <c r="R44" t="n">
+        <v>207.61</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T44" t="n">
+        <v>0</v>
       </c>
       <c r="U44" t="inlineStr"/>
     </row>
@@ -2671,18 +2539,14 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>8225.2800</t>
-        </is>
+      <c r="R45" t="n">
+        <v>8225.280000000001</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T45" t="n">
+        <v>0</v>
       </c>
       <c r="U45" t="inlineStr"/>
     </row>
@@ -2707,7 +2571,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Angola łącznie z Kabinda</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -2724,18 +2588,14 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>655.1800</t>
-        </is>
+      <c r="R46" t="n">
+        <v>655.1799999999999</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T46" t="n">
+        <v>0</v>
       </c>
       <c r="U46" t="inlineStr"/>
     </row>
@@ -2777,18 +2637,14 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>13562.3500</t>
-        </is>
+      <c r="R47" t="n">
+        <v>13562.35</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T47" t="n">
+        <v>0</v>
       </c>
       <c r="U47" t="inlineStr"/>
     </row>
@@ -2830,18 +2686,14 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>13972.0500</t>
-        </is>
+      <c r="R48" t="n">
+        <v>13972.05</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T48" t="n">
+        <v>0</v>
       </c>
       <c r="U48" t="inlineStr"/>
     </row>
@@ -2883,18 +2735,14 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>177.9900</t>
-        </is>
+      <c r="R49" t="n">
+        <v>177.99</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T49" t="n">
+        <v>0</v>
       </c>
       <c r="U49" t="inlineStr"/>
     </row>
@@ -2936,18 +2784,14 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>510121.9000</t>
-        </is>
+      <c r="R50" t="n">
+        <v>510121.9</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T50" t="n">
+        <v>0</v>
       </c>
       <c r="U50" t="inlineStr"/>
     </row>
@@ -2972,7 +2816,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Azerbejdżan</t>
+          <t>Azerbejdzan</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -2989,18 +2833,14 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>71261.2800</t>
-        </is>
+      <c r="R51" t="n">
+        <v>71261.28</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T51" t="n">
+        <v>0</v>
       </c>
       <c r="U51" t="inlineStr"/>
     </row>
@@ -3042,18 +2882,14 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>789.8000</t>
-        </is>
+      <c r="R52" t="n">
+        <v>789.8</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
       </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T52" t="n">
+        <v>0</v>
       </c>
       <c r="U52" t="inlineStr"/>
     </row>
@@ -3095,18 +2931,14 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>13941.4800</t>
-        </is>
+      <c r="R53" t="n">
+        <v>13941.48</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T53" t="n">
+        <v>0</v>
       </c>
       <c r="U53" t="inlineStr"/>
     </row>
@@ -3148,18 +2980,14 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>1251.4000</t>
-        </is>
+      <c r="R54" t="n">
+        <v>1251.4</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T54" t="n">
+        <v>0</v>
       </c>
       <c r="U54" t="inlineStr"/>
     </row>
@@ -3201,18 +3029,14 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>635.0000</t>
-        </is>
+      <c r="R55" t="n">
+        <v>635</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T55" t="n">
+        <v>0</v>
       </c>
       <c r="U55" t="inlineStr"/>
     </row>
@@ -3237,7 +3061,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Białoruś</t>
+          <t>Bialorus</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -3254,18 +3078,14 @@
       <c r="Q56" t="n">
         <v>2</v>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>918101.7200</t>
-        </is>
+      <c r="R56" t="n">
+        <v>918101.72</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>100.0000</t>
-        </is>
+      <c r="T56" t="n">
+        <v>100</v>
       </c>
       <c r="U56" t="inlineStr"/>
     </row>
@@ -3307,18 +3127,14 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>524.0000</t>
-        </is>
+      <c r="R57" t="n">
+        <v>524</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T57" t="n">
+        <v>0</v>
       </c>
       <c r="U57" t="inlineStr"/>
     </row>
@@ -3360,18 +3176,14 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>1383.3300</t>
-        </is>
+      <c r="R58" t="n">
+        <v>1383.33</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T58" t="n">
+        <v>0</v>
       </c>
       <c r="U58" t="inlineStr"/>
     </row>
@@ -3413,18 +3225,14 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>1155.3000</t>
-        </is>
+      <c r="R59" t="n">
+        <v>1155.3</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
       </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T59" t="n">
+        <v>0</v>
       </c>
       <c r="U59" t="inlineStr"/>
     </row>
@@ -3449,7 +3257,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Bośnia i Hercegowina</t>
+          <t>Bosnia i Hercegowina</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -3466,18 +3274,14 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>8652.9900</t>
-        </is>
+      <c r="R60" t="n">
+        <v>8652.99</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
       </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T60" t="n">
+        <v>0</v>
       </c>
       <c r="U60" t="inlineStr"/>
     </row>
@@ -3519,18 +3323,14 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>257.5000</t>
-        </is>
+      <c r="R61" t="n">
+        <v>257.5</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
       </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T61" t="n">
+        <v>0</v>
       </c>
       <c r="U61" t="inlineStr"/>
     </row>
@@ -3572,18 +3372,14 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>74995.1900</t>
-        </is>
+      <c r="R62" t="n">
+        <v>74995.19</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T62" t="n">
+        <v>0</v>
       </c>
       <c r="U62" t="inlineStr"/>
     </row>
@@ -3625,18 +3421,14 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>1867.6000</t>
-        </is>
+      <c r="R63" t="n">
+        <v>1867.6</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
       </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T63" t="n">
+        <v>0</v>
       </c>
       <c r="U63" t="inlineStr"/>
     </row>
@@ -3661,7 +3453,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Wyspy Zielonego Przylądka</t>
+          <t>Wyspy Zielonego Przyladka</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -3678,18 +3470,14 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>13.0000</t>
-        </is>
+      <c r="R64" t="n">
+        <v>13</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
       </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T64" t="n">
+        <v>0</v>
       </c>
       <c r="U64" t="inlineStr"/>
     </row>
@@ -3714,7 +3502,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Kambodża (Kampucza)</t>
+          <t>Kambodza (Kampucza)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -3731,18 +3519,14 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>292.0000</t>
-        </is>
+      <c r="R65" t="n">
+        <v>292</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
       </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T65" t="n">
+        <v>0</v>
       </c>
       <c r="U65" t="inlineStr"/>
     </row>
@@ -3784,18 +3568,14 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>1023.0000</t>
-        </is>
+      <c r="R66" t="n">
+        <v>1023</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
       </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T66" t="n">
+        <v>0</v>
       </c>
       <c r="U66" t="inlineStr"/>
     </row>
@@ -3837,18 +3617,14 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>807501.8600</t>
-        </is>
+      <c r="R67" t="n">
+        <v>807501.86</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
       </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T67" t="n">
+        <v>0</v>
       </c>
       <c r="U67" t="inlineStr"/>
     </row>
@@ -3890,18 +3666,14 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>3505.9600</t>
-        </is>
+      <c r="R68" t="n">
+        <v>3505.96</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
       </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T68" t="n">
+        <v>0</v>
       </c>
       <c r="U68" t="inlineStr"/>
     </row>
@@ -3943,18 +3715,14 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>26487.8500</t>
-        </is>
+      <c r="R69" t="n">
+        <v>26487.85</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T69" t="n">
+        <v>0</v>
       </c>
       <c r="U69" t="inlineStr"/>
     </row>
@@ -3996,18 +3764,14 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>178540.3900</t>
-        </is>
+      <c r="R70" t="n">
+        <v>178540.39</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T70" t="n">
+        <v>0</v>
       </c>
       <c r="U70" t="inlineStr"/>
     </row>
@@ -4049,18 +3813,14 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>32179.3600</t>
-        </is>
+      <c r="R71" t="n">
+        <v>32179.36</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T71" t="n">
+        <v>0</v>
       </c>
       <c r="U71" t="inlineStr"/>
     </row>
@@ -4085,7 +3845,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Kongo, Republika Demokratyczna</t>
+          <t>Demokratyczna Republika Konga</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -4102,18 +3862,14 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>1694.7000</t>
-        </is>
+      <c r="R72" t="n">
+        <v>1694.7</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T72" t="n">
+        <v>0</v>
       </c>
       <c r="U72" t="inlineStr"/>
     </row>
@@ -4155,18 +3911,14 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>71.8000</t>
-        </is>
+      <c r="R73" t="n">
+        <v>71.8</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
       </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T73" t="n">
+        <v>0</v>
       </c>
       <c r="U73" t="inlineStr"/>
     </row>
@@ -4208,18 +3960,14 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>21201.1100</t>
-        </is>
+      <c r="R74" t="n">
+        <v>21201.11</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T74" t="n">
+        <v>0</v>
       </c>
       <c r="U74" t="inlineStr"/>
     </row>
@@ -4244,7 +3992,7 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Wybrzeże Kości Słoniowej</t>
+          <t>Wybrzeze Kosci Sloniowej</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -4261,18 +4009,14 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>342.6500</t>
-        </is>
+      <c r="R75" t="n">
+        <v>342.65</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
       </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T75" t="n">
+        <v>0</v>
       </c>
       <c r="U75" t="inlineStr"/>
     </row>
@@ -4314,18 +4058,14 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>68.0000</t>
-        </is>
+      <c r="R76" t="n">
+        <v>68</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
       </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T76" t="n">
+        <v>0</v>
       </c>
       <c r="U76" t="inlineStr"/>
     </row>
@@ -4350,7 +4090,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Dżibuti</t>
+          <t>Dzibuti</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -4367,18 +4107,14 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>65.0000</t>
-        </is>
+      <c r="R77" t="n">
+        <v>65</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
       </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T77" t="n">
+        <v>0</v>
       </c>
       <c r="U77" t="inlineStr"/>
     </row>
@@ -4420,18 +4156,14 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>2074.4900</t>
-        </is>
+      <c r="R78" t="n">
+        <v>2074.49</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
       </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T78" t="n">
+        <v>0</v>
       </c>
       <c r="U78" t="inlineStr"/>
     </row>
@@ -4456,7 +4188,7 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ekwador </t>
+          <t>Ekwador</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -4473,18 +4205,14 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>5245.9300</t>
-        </is>
+      <c r="R79" t="n">
+        <v>5245.93</v>
       </c>
       <c r="S79" t="n">
         <v>0</v>
       </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T79" t="n">
+        <v>0</v>
       </c>
       <c r="U79" t="inlineStr"/>
     </row>
@@ -4526,18 +4254,14 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>64431.1100</t>
-        </is>
+      <c r="R80" t="n">
+        <v>64431.11</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
       </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T80" t="n">
+        <v>0</v>
       </c>
       <c r="U80" t="inlineStr"/>
     </row>
@@ -4579,18 +4303,14 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>2876.7900</t>
-        </is>
+      <c r="R81" t="n">
+        <v>2876.79</v>
       </c>
       <c r="S81" t="n">
         <v>0</v>
       </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T81" t="n">
+        <v>0</v>
       </c>
       <c r="U81" t="inlineStr"/>
     </row>
@@ -4632,18 +4352,14 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>25.0000</t>
-        </is>
+      <c r="R82" t="n">
+        <v>25</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
       </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T82" t="n">
+        <v>0</v>
       </c>
       <c r="U82" t="inlineStr"/>
     </row>
@@ -4653,7 +4369,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>D09</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -4668,16 +4384,16 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Pozostałe kraje</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Extra UE not allocated</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="O83" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4685,18 +4401,14 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>20872.0200</t>
-        </is>
+      <c r="R83" t="n">
+        <v>250</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
       </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T83" t="n">
+        <v>0</v>
       </c>
       <c r="U83" t="inlineStr"/>
     </row>
@@ -4706,7 +4418,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -4721,16 +4433,16 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Gruzja</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>2998</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -4738,18 +4450,14 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>250.0000</t>
-        </is>
+      <c r="R84" t="n">
+        <v>183979.42</v>
       </c>
       <c r="S84" t="n">
         <v>0</v>
       </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T84" t="n">
+        <v>0</v>
       </c>
       <c r="U84" t="inlineStr"/>
     </row>
@@ -4759,7 +4467,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GH</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4774,16 +4482,16 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Gruzja</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="O85" t="n">
-        <v>2998</v>
+        <v>205</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -4791,18 +4499,14 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>183979.4200</t>
-        </is>
+      <c r="R85" t="n">
+        <v>13315.55</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
       </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T85" t="n">
+        <v>0</v>
       </c>
       <c r="U85" t="inlineStr"/>
     </row>
@@ -4812,7 +4516,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>GI</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -4827,16 +4531,16 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Gibraltar</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Gibraltar</t>
         </is>
       </c>
       <c r="O86" t="n">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -4844,18 +4548,14 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>13315.5500</t>
-        </is>
+      <c r="R86" t="n">
+        <v>2192</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
       </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T86" t="n">
+        <v>0</v>
       </c>
       <c r="U86" t="inlineStr"/>
     </row>
@@ -4865,7 +4565,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GI</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4880,16 +4580,16 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Gibraltar</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Gibraltar</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="O87" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -4897,18 +4597,14 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>2192.0000</t>
-        </is>
+      <c r="R87" t="n">
+        <v>57</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
       </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T87" t="n">
+        <v>0</v>
       </c>
       <c r="U87" t="inlineStr"/>
     </row>
@@ -4918,7 +4614,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>GU</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4933,16 +4629,16 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Guam</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Guam</t>
         </is>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -4950,18 +4646,14 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>57.0000</t>
-        </is>
+      <c r="R88" t="n">
+        <v>88.40000000000001</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
       </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T88" t="n">
+        <v>0</v>
       </c>
       <c r="U88" t="inlineStr"/>
     </row>
@@ -4971,7 +4663,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4986,16 +4678,16 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Guam</t>
+          <t>Gwatemala</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Guam</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="O89" t="n">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -5003,18 +4695,14 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>88.4000</t>
-        </is>
+      <c r="R89" t="n">
+        <v>6126.88</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
       </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T89" t="n">
+        <v>0</v>
       </c>
       <c r="U89" t="inlineStr"/>
     </row>
@@ -5024,7 +4712,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -5039,16 +4727,16 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Gwatemala</t>
+          <t>Watykan</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Holy See (the)</t>
         </is>
       </c>
       <c r="O90" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -5056,18 +4744,14 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>6126.8800</t>
-        </is>
+      <c r="R90" t="n">
+        <v>1245.3</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
       </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T90" t="n">
+        <v>0</v>
       </c>
       <c r="U90" t="inlineStr"/>
     </row>
@@ -5077,7 +4761,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>HN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -5092,16 +4776,16 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Watykan</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Holy See (the)</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="O91" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -5109,18 +4793,14 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>1245.3000</t>
-        </is>
+      <c r="R91" t="n">
+        <v>860.96</v>
       </c>
       <c r="S91" t="n">
         <v>0</v>
       </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T91" t="n">
+        <v>0</v>
       </c>
       <c r="U91" t="inlineStr"/>
     </row>
@@ -5130,7 +4810,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HN</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -5145,16 +4825,16 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Hongkong</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="O92" t="n">
-        <v>25</v>
+        <v>611</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -5162,18 +4842,14 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>860.9600</t>
-        </is>
+      <c r="R92" t="n">
+        <v>57365.26</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
       </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T92" t="n">
+        <v>0</v>
       </c>
       <c r="U92" t="inlineStr"/>
     </row>
@@ -5183,7 +4859,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -5198,16 +4874,16 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Hongkong</t>
+          <t>Indie</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>India</t>
         </is>
       </c>
       <c r="O93" t="n">
-        <v>611</v>
+        <v>1008</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -5215,18 +4891,14 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>57365.2600</t>
-        </is>
+      <c r="R93" t="n">
+        <v>77024.75</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
       </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T93" t="n">
+        <v>0</v>
       </c>
       <c r="U93" t="inlineStr"/>
     </row>
@@ -5236,7 +4908,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -5251,16 +4923,16 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Indie</t>
+          <t>Indonezja</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="O94" t="n">
-        <v>1008</v>
+        <v>142</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -5268,18 +4940,14 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>77024.7500</t>
-        </is>
+      <c r="R94" t="n">
+        <v>11901.57</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
       </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T94" t="n">
+        <v>0</v>
       </c>
       <c r="U94" t="inlineStr"/>
     </row>
@@ -5289,7 +4957,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -5304,16 +4972,16 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Indonezja</t>
+          <t>Irak</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="O95" t="n">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -5321,18 +4989,14 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>11901.5700</t>
-        </is>
+      <c r="R95" t="n">
+        <v>4648.79</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
       </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T95" t="n">
+        <v>0</v>
       </c>
       <c r="U95" t="inlineStr"/>
     </row>
@@ -5342,7 +5006,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -5357,16 +5021,16 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Irak</t>
+          <t>Izrael</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="O96" t="n">
-        <v>78</v>
+        <v>4298</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5374,18 +5038,14 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>4648.7900</t>
-        </is>
+      <c r="R96" t="n">
+        <v>385239.44</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
       </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T96" t="n">
+        <v>0</v>
       </c>
       <c r="U96" t="inlineStr"/>
     </row>
@@ -5395,7 +5055,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>JM</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -5410,16 +5070,16 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Izrael</t>
+          <t>Jamajka</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="O97" t="n">
-        <v>4298</v>
+        <v>3</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -5427,18 +5087,14 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>385239.4400</t>
-        </is>
+      <c r="R97" t="n">
+        <v>158.1</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
       </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T97" t="n">
+        <v>0</v>
       </c>
       <c r="U97" t="inlineStr"/>
     </row>
@@ -5448,7 +5104,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -5463,16 +5119,16 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Jamajka</t>
+          <t>Japonia</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O98" t="n">
-        <v>3</v>
+        <v>1236</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -5480,18 +5136,14 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>158.1000</t>
-        </is>
+      <c r="R98" t="n">
+        <v>85781.84</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
       </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T98" t="n">
+        <v>0</v>
       </c>
       <c r="U98" t="inlineStr"/>
     </row>
@@ -5501,7 +5153,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>JE</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -5516,16 +5168,16 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Japonia</t>
+          <t>Jersey</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Jersey</t>
         </is>
       </c>
       <c r="O99" t="n">
-        <v>1236</v>
+        <v>1</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5533,18 +5185,14 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>85781.8400</t>
-        </is>
+      <c r="R99" t="n">
+        <v>9</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
       </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T99" t="n">
+        <v>0</v>
       </c>
       <c r="U99" t="inlineStr"/>
     </row>
@@ -5554,7 +5202,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JE</t>
+          <t>JO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -5569,16 +5217,16 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jersey </t>
+          <t>Jordania</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Jersey</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="O100" t="n">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -5586,18 +5234,14 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>9.0000</t>
-        </is>
+      <c r="R100" t="n">
+        <v>13507.98</v>
       </c>
       <c r="S100" t="n">
         <v>0</v>
       </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T100" t="n">
+        <v>0</v>
       </c>
       <c r="U100" t="inlineStr"/>
     </row>
@@ -5607,7 +5251,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>JO</t>
+          <t>KZ</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -5622,16 +5266,16 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Jordania</t>
+          <t>Kazachstan</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="O101" t="n">
-        <v>192</v>
+        <v>2118</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
@@ -5639,18 +5283,14 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>13507.9800</t>
-        </is>
+      <c r="R101" t="n">
+        <v>110823.37</v>
       </c>
       <c r="S101" t="n">
         <v>0</v>
       </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T101" t="n">
+        <v>0</v>
       </c>
       <c r="U101" t="inlineStr"/>
     </row>
@@ -5660,7 +5300,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>KE</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -5675,16 +5315,16 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Kazachstan</t>
+          <t>Kenia</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="O102" t="n">
-        <v>2118</v>
+        <v>190</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
@@ -5692,18 +5332,14 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>110823.3700</t>
-        </is>
+      <c r="R102" t="n">
+        <v>8907.1</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
       </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T102" t="n">
+        <v>0</v>
       </c>
       <c r="U102" t="inlineStr"/>
     </row>
@@ -5713,7 +5349,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -5728,16 +5364,16 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Kenia</t>
+          <t>Korea Poludniowa</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Korea (the Republic of)</t>
         </is>
       </c>
       <c r="O103" t="n">
-        <v>190</v>
+        <v>3411</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
@@ -5745,18 +5381,14 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>8907.1000</t>
-        </is>
+      <c r="R103" t="n">
+        <v>562824.71</v>
       </c>
       <c r="S103" t="n">
         <v>0</v>
       </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T103" t="n">
+        <v>0</v>
       </c>
       <c r="U103" t="inlineStr"/>
     </row>
@@ -5766,7 +5398,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>KW</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -5781,16 +5413,16 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Republika Korei (Korea Południowa)</t>
+          <t>Kuwejt</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Korea (the Republic of)</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="O104" t="n">
-        <v>3411</v>
+        <v>459</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
@@ -5798,18 +5430,14 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>562824.7100</t>
-        </is>
+      <c r="R104" t="n">
+        <v>55232.82</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
       </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T104" t="n">
+        <v>0</v>
       </c>
       <c r="U104" t="inlineStr"/>
     </row>
@@ -5819,7 +5447,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>KW</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -5834,16 +5462,16 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Kuwejt</t>
+          <t>Kirgistan</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="O105" t="n">
-        <v>459</v>
+        <v>232</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
@@ -5851,18 +5479,14 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>55232.8200</t>
-        </is>
+      <c r="R105" t="n">
+        <v>10268.34</v>
       </c>
       <c r="S105" t="n">
         <v>0</v>
       </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T105" t="n">
+        <v>0</v>
       </c>
       <c r="U105" t="inlineStr"/>
     </row>
@@ -5872,7 +5496,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -5887,16 +5511,16 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Kirgistan</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Lao People's Democratic Republic (the)</t>
         </is>
       </c>
       <c r="O106" t="n">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -5904,18 +5528,14 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>10268.3400</t>
-        </is>
+      <c r="R106" t="n">
+        <v>8763.059999999999</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
       </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T106" t="n">
+        <v>0</v>
       </c>
       <c r="U106" t="inlineStr"/>
     </row>
@@ -5925,7 +5545,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -5940,16 +5560,16 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Liban</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Lao People's Democratic Republic (the)</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="O107" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -5957,18 +5577,14 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>8763.0600</t>
-        </is>
+      <c r="R107" t="n">
+        <v>978.21</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
       </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T107" t="n">
+        <v>0</v>
       </c>
       <c r="U107" t="inlineStr"/>
     </row>
@@ -5978,7 +5594,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>LY</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -5993,16 +5609,16 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Liban</t>
+          <t>Libia</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="O108" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
@@ -6010,18 +5626,14 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>978.2100</t>
-        </is>
+      <c r="R108" t="n">
+        <v>69</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
       </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T108" t="n">
+        <v>0</v>
       </c>
       <c r="U108" t="inlineStr"/>
     </row>
@@ -6031,7 +5643,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LY</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -6046,16 +5658,16 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Libia</t>
+          <t>Makao</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Macao</t>
         </is>
       </c>
       <c r="O109" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
@@ -6063,18 +5675,14 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>69.0000</t>
-        </is>
+      <c r="R109" t="n">
+        <v>1060.7</v>
       </c>
       <c r="S109" t="n">
         <v>0</v>
       </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T109" t="n">
+        <v>0</v>
       </c>
       <c r="U109" t="inlineStr"/>
     </row>
@@ -6084,7 +5692,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>MW</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -6099,16 +5707,16 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Makao</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>Macao</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="O110" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -6116,18 +5724,14 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>1060.7000</t>
-        </is>
+      <c r="R110" t="n">
+        <v>50</v>
       </c>
       <c r="S110" t="n">
         <v>0</v>
       </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T110" t="n">
+        <v>0</v>
       </c>
       <c r="U110" t="inlineStr"/>
     </row>
@@ -6137,7 +5741,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MW</t>
+          <t>MY</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -6152,16 +5756,16 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Malezja</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="O111" t="n">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -6169,18 +5773,14 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>50.0000</t>
-        </is>
+      <c r="R111" t="n">
+        <v>14269.25</v>
       </c>
       <c r="S111" t="n">
         <v>0</v>
       </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T111" t="n">
+        <v>0</v>
       </c>
       <c r="U111" t="inlineStr"/>
     </row>
@@ -6190,7 +5790,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MY</t>
+          <t>MV</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -6205,16 +5805,16 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Malezja</t>
+          <t>Malediwy</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="O112" t="n">
-        <v>275</v>
+        <v>1</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
@@ -6222,18 +5822,14 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>14269.2500</t>
-        </is>
+      <c r="R112" t="n">
+        <v>239</v>
       </c>
       <c r="S112" t="n">
         <v>0</v>
       </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T112" t="n">
+        <v>0</v>
       </c>
       <c r="U112" t="inlineStr"/>
     </row>
@@ -6243,7 +5839,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MV</t>
+          <t>MR</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -6258,16 +5854,16 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Malediwy</t>
+          <t>Mauretania</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="O113" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -6275,18 +5871,14 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>239.0000</t>
-        </is>
+      <c r="R113" t="n">
+        <v>335.9</v>
       </c>
       <c r="S113" t="n">
         <v>0</v>
       </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T113" t="n">
+        <v>0</v>
       </c>
       <c r="U113" t="inlineStr"/>
     </row>
@@ -6296,7 +5888,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MR</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -6311,16 +5903,16 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Mauretania</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="O114" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -6328,18 +5920,14 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>335.9000</t>
-        </is>
+      <c r="R114" t="n">
+        <v>1597.02</v>
       </c>
       <c r="S114" t="n">
         <v>0</v>
       </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T114" t="n">
+        <v>0</v>
       </c>
       <c r="U114" t="inlineStr"/>
     </row>
@@ -6349,7 +5937,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -6364,16 +5952,16 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Meksyk</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O115" t="n">
-        <v>28</v>
+        <v>1539</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -6381,18 +5969,14 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>1597.0200</t>
-        </is>
+      <c r="R115" t="n">
+        <v>100583.83</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
       </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T115" t="n">
+        <v>0</v>
       </c>
       <c r="U115" t="inlineStr"/>
     </row>
@@ -6402,7 +5986,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -6417,16 +6001,16 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Meksyk</t>
+          <t>Moldowa</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Moldova (the Republic of)</t>
         </is>
       </c>
       <c r="O116" t="n">
-        <v>1539</v>
+        <v>742</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
@@ -6434,18 +6018,14 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>100583.8300</t>
-        </is>
+      <c r="R116" t="n">
+        <v>54883.7</v>
       </c>
       <c r="S116" t="n">
         <v>0</v>
       </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T116" t="n">
+        <v>0</v>
       </c>
       <c r="U116" t="inlineStr"/>
     </row>
@@ -6455,7 +6035,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -6470,16 +6050,16 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Mołdowa</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Moldova (the Republic of)</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="O117" t="n">
-        <v>742</v>
+        <v>53</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
@@ -6487,18 +6067,14 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>54883.7000</t>
-        </is>
+      <c r="R117" t="n">
+        <v>8917.34</v>
       </c>
       <c r="S117" t="n">
         <v>0</v>
       </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T117" t="n">
+        <v>0</v>
       </c>
       <c r="U117" t="inlineStr"/>
     </row>
@@ -6508,7 +6084,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -6523,16 +6099,16 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Czarnogora</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="O118" t="n">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
@@ -6540,18 +6116,14 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>8917.3400</t>
-        </is>
+      <c r="R118" t="n">
+        <v>17949.99</v>
       </c>
       <c r="S118" t="n">
         <v>0</v>
       </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T118" t="n">
+        <v>0</v>
       </c>
       <c r="U118" t="inlineStr"/>
     </row>
@@ -6561,7 +6133,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -6576,16 +6148,16 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Czarnogóra</t>
+          <t>Maroko</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="O119" t="n">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
@@ -6593,18 +6165,14 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>17949.9900</t>
-        </is>
+      <c r="R119" t="n">
+        <v>4435.21</v>
       </c>
       <c r="S119" t="n">
         <v>0</v>
       </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T119" t="n">
+        <v>0</v>
       </c>
       <c r="U119" t="inlineStr"/>
     </row>
@@ -6614,7 +6182,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>MZ</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -6629,16 +6197,16 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Maroko</t>
+          <t>Mozambik</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="O120" t="n">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
@@ -6646,18 +6214,14 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>4435.2100</t>
-        </is>
+      <c r="R120" t="n">
+        <v>2160.43</v>
       </c>
       <c r="S120" t="n">
         <v>0</v>
       </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T120" t="n">
+        <v>0</v>
       </c>
       <c r="U120" t="inlineStr"/>
     </row>
@@ -6667,7 +6231,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MZ</t>
+          <t>MM</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -6682,16 +6246,16 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Mozambik</t>
+          <t>Myanmar (Birma)</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="O121" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
@@ -6699,18 +6263,14 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>2160.4300</t>
-        </is>
+      <c r="R121" t="n">
+        <v>2784.55</v>
       </c>
       <c r="S121" t="n">
         <v>0</v>
       </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T121" t="n">
+        <v>0</v>
       </c>
       <c r="U121" t="inlineStr"/>
     </row>
@@ -6720,7 +6280,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -6735,16 +6295,16 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Myanmar (Birma)</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="O122" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -6752,18 +6312,14 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>2784.5500</t>
-        </is>
+      <c r="R122" t="n">
+        <v>1387.97</v>
       </c>
       <c r="S122" t="n">
         <v>0</v>
       </c>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T122" t="n">
+        <v>0</v>
       </c>
       <c r="U122" t="inlineStr"/>
     </row>
@@ -6773,7 +6329,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -6788,16 +6344,16 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="O123" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="P123" t="n">
         <v>0</v>
@@ -6805,18 +6361,14 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>1387.9700</t>
-        </is>
+      <c r="R123" t="n">
+        <v>544.33</v>
       </c>
       <c r="S123" t="n">
         <v>0</v>
       </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T123" t="n">
+        <v>0</v>
       </c>
       <c r="U123" t="inlineStr"/>
     </row>
@@ -6826,7 +6378,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NP</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -6841,16 +6393,16 @@
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Nowa Zelandia</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="O124" t="n">
-        <v>7</v>
+        <v>980</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
@@ -6858,18 +6410,14 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>544.3300</t>
-        </is>
+      <c r="R124" t="n">
+        <v>66242.42</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
       </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T124" t="n">
+        <v>0</v>
       </c>
       <c r="U124" t="inlineStr"/>
     </row>
@@ -6879,7 +6427,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>NI</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -6894,16 +6442,16 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Nowa Zelandia</t>
+          <t>Nikaragua</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="O125" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="P125" t="n">
         <v>0</v>
@@ -6911,18 +6459,14 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>66242.4200</t>
-        </is>
+      <c r="R125" t="n">
+        <v>699.14</v>
       </c>
       <c r="S125" t="n">
         <v>0</v>
       </c>
-      <c r="T125" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T125" t="n">
+        <v>0</v>
       </c>
       <c r="U125" t="inlineStr"/>
     </row>
@@ -6932,7 +6476,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -6947,16 +6491,16 @@
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Nikaragua</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="O126" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="P126" t="n">
         <v>0</v>
@@ -6964,18 +6508,14 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>699.1400</t>
-        </is>
+      <c r="R126" t="n">
+        <v>2409.24</v>
       </c>
       <c r="S126" t="n">
         <v>0</v>
       </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T126" t="n">
+        <v>0</v>
       </c>
       <c r="U126" t="inlineStr"/>
     </row>
@@ -6985,7 +6525,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>MK</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -7000,16 +6540,16 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Macedonia</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="O127" t="n">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="P127" t="n">
         <v>0</v>
@@ -7017,18 +6557,14 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>2409.2400</t>
-        </is>
+      <c r="R127" t="n">
+        <v>16785.91</v>
       </c>
       <c r="S127" t="n">
         <v>0</v>
       </c>
-      <c r="T127" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T127" t="n">
+        <v>0</v>
       </c>
       <c r="U127" t="inlineStr"/>
     </row>
@@ -7038,7 +6574,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MK</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -7053,16 +6589,16 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Macedonia</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="O128" t="n">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="P128" t="n">
         <v>0</v>
@@ -7070,18 +6606,14 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>16785.9100</t>
-        </is>
+      <c r="R128" t="n">
+        <v>22385.55</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
       </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T128" t="n">
+        <v>0</v>
       </c>
       <c r="U128" t="inlineStr"/>
     </row>
@@ -7091,7 +6623,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -7106,16 +6638,16 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oman </t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="O129" t="n">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
@@ -7123,18 +6655,14 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>22385.5500</t>
-        </is>
+      <c r="R129" t="n">
+        <v>601.1</v>
       </c>
       <c r="S129" t="n">
         <v>0</v>
       </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T129" t="n">
+        <v>0</v>
       </c>
       <c r="U129" t="inlineStr"/>
     </row>
@@ -7144,7 +6672,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -7159,16 +6687,16 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Palestyna</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Palestine, State of</t>
         </is>
       </c>
       <c r="O130" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
@@ -7176,18 +6704,14 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
-      <c r="R130" t="inlineStr">
-        <is>
-          <t>601.1000</t>
-        </is>
+      <c r="R130" t="n">
+        <v>1807.06</v>
       </c>
       <c r="S130" t="n">
         <v>0</v>
       </c>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T130" t="n">
+        <v>0</v>
       </c>
       <c r="U130" t="inlineStr"/>
     </row>
@@ -7197,7 +6721,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -7212,16 +6736,16 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Palestyna</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>Palestine, State of</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="O131" t="n">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="P131" t="n">
         <v>0</v>
@@ -7229,18 +6753,14 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
-      <c r="R131" t="inlineStr">
-        <is>
-          <t>1807.0600</t>
-        </is>
+      <c r="R131" t="n">
+        <v>6909.8</v>
       </c>
       <c r="S131" t="n">
         <v>0</v>
       </c>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T131" t="n">
+        <v>0</v>
       </c>
       <c r="U131" t="inlineStr"/>
     </row>
@@ -7250,7 +6770,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -7265,16 +6785,16 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Papua Nowa Gwinea</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="O132" t="n">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
@@ -7282,18 +6802,14 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
-      <c r="R132" t="inlineStr">
-        <is>
-          <t>6909.8000</t>
-        </is>
+      <c r="R132" t="n">
+        <v>62.16</v>
       </c>
       <c r="S132" t="n">
         <v>0</v>
       </c>
-      <c r="T132" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T132" t="n">
+        <v>0</v>
       </c>
       <c r="U132" t="inlineStr"/>
     </row>
@@ -7303,7 +6819,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PY</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -7318,16 +6834,16 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Papua Nowa Gwinea</t>
+          <t>Paragwaj</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="O133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P133" t="n">
         <v>0</v>
@@ -7335,18 +6851,14 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>62.1600</t>
-        </is>
+      <c r="R133" t="n">
+        <v>880</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
       </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T133" t="n">
+        <v>0</v>
       </c>
       <c r="U133" t="inlineStr"/>
     </row>
@@ -7356,7 +6868,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PY</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -7371,16 +6883,16 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Paragwaj</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="O134" t="n">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="P134" t="n">
         <v>0</v>
@@ -7388,18 +6900,14 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
-      <c r="R134" t="inlineStr">
-        <is>
-          <t>880.0000</t>
-        </is>
+      <c r="R134" t="n">
+        <v>17965.35</v>
       </c>
       <c r="S134" t="n">
         <v>0</v>
       </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T134" t="n">
+        <v>0</v>
       </c>
       <c r="U134" t="inlineStr"/>
     </row>
@@ -7409,7 +6917,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -7424,16 +6932,16 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Filipiny</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Philippines (the)</t>
         </is>
       </c>
       <c r="O135" t="n">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="P135" t="n">
         <v>0</v>
@@ -7441,18 +6949,14 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>17965.3500</t>
-        </is>
+      <c r="R135" t="n">
+        <v>16883.08</v>
       </c>
       <c r="S135" t="n">
         <v>0</v>
       </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T135" t="n">
+        <v>0</v>
       </c>
       <c r="U135" t="inlineStr"/>
     </row>
@@ -7462,7 +6966,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -7477,16 +6981,16 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Filipiny</t>
+          <t>Katar</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>Philippines (the)</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="O136" t="n">
-        <v>233</v>
+        <v>727</v>
       </c>
       <c r="P136" t="n">
         <v>0</v>
@@ -7494,18 +6998,14 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>16883.0800</t>
-        </is>
+      <c r="R136" t="n">
+        <v>98035.59</v>
       </c>
       <c r="S136" t="n">
         <v>0</v>
       </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T136" t="n">
+        <v>0</v>
       </c>
       <c r="U136" t="inlineStr"/>
     </row>
@@ -7515,7 +7015,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -7530,16 +7030,16 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Katar</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="O137" t="n">
-        <v>727</v>
+        <v>19</v>
       </c>
       <c r="P137" t="n">
         <v>0</v>
@@ -7547,18 +7047,14 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>98035.5900</t>
-        </is>
+      <c r="R137" t="n">
+        <v>1610.76</v>
       </c>
       <c r="S137" t="n">
         <v>0</v>
       </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T137" t="n">
+        <v>0</v>
       </c>
       <c r="U137" t="inlineStr"/>
     </row>
@@ -7568,7 +7064,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>KN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -7583,16 +7079,16 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Saint Kitts i Nevis</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="O138" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="P138" t="n">
         <v>0</v>
@@ -7600,18 +7096,14 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>1610.7600</t>
-        </is>
+      <c r="R138" t="n">
+        <v>49</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
       </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T138" t="n">
+        <v>0</v>
       </c>
       <c r="U138" t="inlineStr"/>
     </row>
@@ -7621,7 +7113,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -7636,16 +7128,16 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Saint Kitts i Nevis</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="O139" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P139" t="n">
         <v>0</v>
@@ -7653,18 +7145,14 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>49.0000</t>
-        </is>
+      <c r="R139" t="n">
+        <v>3145.3</v>
       </c>
       <c r="S139" t="n">
         <v>0</v>
       </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T139" t="n">
+        <v>0</v>
       </c>
       <c r="U139" t="inlineStr"/>
     </row>
@@ -7674,7 +7162,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -7689,16 +7177,16 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Arabia Saudyjska</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="O140" t="n">
-        <v>22</v>
+        <v>3611</v>
       </c>
       <c r="P140" t="n">
         <v>0</v>
@@ -7706,18 +7194,14 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>3145.3000</t>
-        </is>
+      <c r="R140" t="n">
+        <v>262258.31</v>
       </c>
       <c r="S140" t="n">
         <v>0</v>
       </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T140" t="n">
+        <v>0</v>
       </c>
       <c r="U140" t="inlineStr"/>
     </row>
@@ -7727,7 +7211,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -7742,16 +7226,16 @@
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Arabia Saudyjska</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="O141" t="n">
-        <v>3611</v>
+        <v>3</v>
       </c>
       <c r="P141" t="n">
         <v>0</v>
@@ -7759,18 +7243,14 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>262258.3100</t>
-        </is>
+      <c r="R141" t="n">
+        <v>199.44</v>
       </c>
       <c r="S141" t="n">
         <v>0</v>
       </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T141" t="n">
+        <v>0</v>
       </c>
       <c r="U141" t="inlineStr"/>
     </row>
@@ -7780,7 +7260,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -7795,16 +7275,16 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="O142" t="n">
-        <v>3</v>
+        <v>524</v>
       </c>
       <c r="P142" t="n">
         <v>0</v>
@@ -7812,18 +7292,14 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>199.4400</t>
-        </is>
+      <c r="R142" t="n">
+        <v>43159.26</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>
       </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T142" t="n">
+        <v>0</v>
       </c>
       <c r="U142" t="inlineStr"/>
     </row>
@@ -7833,7 +7309,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -7848,16 +7324,16 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Seszele</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="O143" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="P143" t="n">
         <v>0</v>
@@ -7865,18 +7341,14 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>43159.2600</t>
-        </is>
+      <c r="R143" t="n">
+        <v>186</v>
       </c>
       <c r="S143" t="n">
         <v>0</v>
       </c>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T143" t="n">
+        <v>0</v>
       </c>
       <c r="U143" t="inlineStr"/>
     </row>
@@ -7886,7 +7358,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SL</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -7901,16 +7373,16 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Seszele</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="O144" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P144" t="n">
         <v>0</v>
@@ -7918,18 +7390,14 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
-      <c r="R144" t="inlineStr">
-        <is>
-          <t>186.0000</t>
-        </is>
+      <c r="R144" t="n">
+        <v>1000</v>
       </c>
       <c r="S144" t="n">
         <v>0</v>
       </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T144" t="n">
+        <v>0</v>
       </c>
       <c r="U144" t="inlineStr"/>
     </row>
@@ -7939,7 +7407,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SL</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -7954,16 +7422,16 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Singapur</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="O145" t="n">
-        <v>3</v>
+        <v>781</v>
       </c>
       <c r="P145" t="n">
         <v>0</v>
@@ -7971,18 +7439,14 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>1000.0000</t>
-        </is>
+      <c r="R145" t="n">
+        <v>106820.55</v>
       </c>
       <c r="S145" t="n">
         <v>0</v>
       </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T145" t="n">
+        <v>0</v>
       </c>
       <c r="U145" t="inlineStr"/>
     </row>
@@ -7992,7 +7456,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -8007,16 +7471,16 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Singapur</t>
+          <t>Sint Maarten</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Sint Maarten (Dutch part)</t>
         </is>
       </c>
       <c r="O146" t="n">
-        <v>781</v>
+        <v>2</v>
       </c>
       <c r="P146" t="n">
         <v>0</v>
@@ -8024,18 +7488,14 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
-      <c r="R146" t="inlineStr">
-        <is>
-          <t>106820.5500</t>
-        </is>
+      <c r="R146" t="n">
+        <v>67</v>
       </c>
       <c r="S146" t="n">
         <v>0</v>
       </c>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T146" t="n">
+        <v>0</v>
       </c>
       <c r="U146" t="inlineStr"/>
     </row>
@@ -8045,7 +7505,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -8060,16 +7520,16 @@
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Sint Maarten</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>Sint Maarten (Dutch part)</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="O147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P147" t="n">
         <v>0</v>
@@ -8077,18 +7537,14 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>67.0000</t>
-        </is>
+      <c r="R147" t="n">
+        <v>50</v>
       </c>
       <c r="S147" t="n">
         <v>0</v>
       </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T147" t="n">
+        <v>0</v>
       </c>
       <c r="U147" t="inlineStr"/>
     </row>
@@ -8098,7 +7554,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -8113,16 +7569,16 @@
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Republika Poludniowej Afryki</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O148" t="n">
-        <v>1</v>
+        <v>427</v>
       </c>
       <c r="P148" t="n">
         <v>0</v>
@@ -8130,18 +7586,14 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
-      <c r="R148" t="inlineStr">
-        <is>
-          <t>50.0000</t>
-        </is>
+      <c r="R148" t="n">
+        <v>37782.85</v>
       </c>
       <c r="S148" t="n">
         <v>0</v>
       </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T148" t="n">
+        <v>0</v>
       </c>
       <c r="U148" t="inlineStr"/>
     </row>
@@ -8151,7 +7603,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>LK</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -8166,16 +7618,16 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Republika Południowej Afryki</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="O149" t="n">
-        <v>427</v>
+        <v>17</v>
       </c>
       <c r="P149" t="n">
         <v>0</v>
@@ -8183,18 +7635,14 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>37782.8500</t>
-        </is>
+      <c r="R149" t="n">
+        <v>781.25</v>
       </c>
       <c r="S149" t="n">
         <v>0</v>
       </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T149" t="n">
+        <v>0</v>
       </c>
       <c r="U149" t="inlineStr"/>
     </row>
@@ -8204,7 +7652,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>LK</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -8219,35 +7667,31 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Szwajcaria</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="O150" t="n">
-        <v>17</v>
+        <v>8676</v>
       </c>
       <c r="P150" t="n">
         <v>0</v>
       </c>
       <c r="Q150" t="n">
-        <v>0</v>
-      </c>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>781.2500</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1024804.87</v>
       </c>
       <c r="S150" t="n">
         <v>0</v>
       </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T150" t="n">
+        <v>8</v>
       </c>
       <c r="U150" t="inlineStr"/>
     </row>
@@ -8257,7 +7701,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -8272,35 +7716,31 @@
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Szwajcaria</t>
+          <t>Tajwan</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Taiwan (Province of China)</t>
         </is>
       </c>
       <c r="O151" t="n">
-        <v>8676</v>
+        <v>699</v>
       </c>
       <c r="P151" t="n">
         <v>0</v>
       </c>
       <c r="Q151" t="n">
-        <v>1</v>
-      </c>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>1024804.8700</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>56884.44</v>
       </c>
       <c r="S151" t="n">
         <v>0</v>
       </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>8.0000</t>
-        </is>
+      <c r="T151" t="n">
+        <v>0</v>
       </c>
       <c r="U151" t="inlineStr"/>
     </row>
@@ -8310,7 +7750,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>TJ</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -8325,16 +7765,16 @@
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Tajwan</t>
+          <t>Tadzykistan</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>Taiwan (Province of China)</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="O152" t="n">
-        <v>699</v>
+        <v>52</v>
       </c>
       <c r="P152" t="n">
         <v>0</v>
@@ -8342,18 +7782,14 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
-      <c r="R152" t="inlineStr">
-        <is>
-          <t>56884.4400</t>
-        </is>
+      <c r="R152" t="n">
+        <v>4062.71</v>
       </c>
       <c r="S152" t="n">
         <v>0</v>
       </c>
-      <c r="T152" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T152" t="n">
+        <v>0</v>
       </c>
       <c r="U152" t="inlineStr"/>
     </row>
@@ -8363,7 +7799,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TJ</t>
+          <t>TZ</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -8378,16 +7814,16 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Tadżykistan</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Tanzania, the United Republic of</t>
         </is>
       </c>
       <c r="O153" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="P153" t="n">
         <v>0</v>
@@ -8395,18 +7831,14 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>4062.7100</t>
-        </is>
+      <c r="R153" t="n">
+        <v>1046.83</v>
       </c>
       <c r="S153" t="n">
         <v>0</v>
       </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T153" t="n">
+        <v>0</v>
       </c>
       <c r="U153" t="inlineStr"/>
     </row>
@@ -8416,7 +7848,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TZ</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -8431,16 +7863,16 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Tajlandia</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>Tanzania, the United Republic of</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="O154" t="n">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="P154" t="n">
         <v>0</v>
@@ -8448,18 +7880,14 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
-      <c r="R154" t="inlineStr">
-        <is>
-          <t>1046.8300</t>
-        </is>
+      <c r="R154" t="n">
+        <v>25605.61</v>
       </c>
       <c r="S154" t="n">
         <v>0</v>
       </c>
-      <c r="T154" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T154" t="n">
+        <v>0</v>
       </c>
       <c r="U154" t="inlineStr"/>
     </row>
@@ -8469,7 +7897,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -8484,16 +7912,16 @@
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Tajlandia</t>
+          <t>Trynidad i Tobago</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="O155" t="n">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="P155" t="n">
         <v>0</v>
@@ -8501,18 +7929,14 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
-      <c r="R155" t="inlineStr">
-        <is>
-          <t>25605.6100</t>
-        </is>
+      <c r="R155" t="n">
+        <v>1370.42</v>
       </c>
       <c r="S155" t="n">
         <v>0</v>
       </c>
-      <c r="T155" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T155" t="n">
+        <v>0</v>
       </c>
       <c r="U155" t="inlineStr"/>
     </row>
@@ -8522,7 +7946,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -8537,16 +7961,16 @@
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Trynidad i Tobago</t>
+          <t>Tunezja</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="O156" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P156" t="n">
         <v>0</v>
@@ -8554,18 +7978,14 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
-      <c r="R156" t="inlineStr">
-        <is>
-          <t>1370.4200</t>
-        </is>
+      <c r="R156" t="n">
+        <v>220.17</v>
       </c>
       <c r="S156" t="n">
         <v>0</v>
       </c>
-      <c r="T156" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T156" t="n">
+        <v>0</v>
       </c>
       <c r="U156" t="inlineStr"/>
     </row>
@@ -8575,7 +7995,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -8590,16 +8010,16 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Tunezja</t>
+          <t>Turcja</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="O157" t="n">
-        <v>4</v>
+        <v>3475</v>
       </c>
       <c r="P157" t="n">
         <v>0</v>
@@ -8607,18 +8027,14 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
-      <c r="R157" t="inlineStr">
-        <is>
-          <t>220.1700</t>
-        </is>
+      <c r="R157" t="n">
+        <v>193606.13</v>
       </c>
       <c r="S157" t="n">
         <v>0</v>
       </c>
-      <c r="T157" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T157" t="n">
+        <v>0</v>
       </c>
       <c r="U157" t="inlineStr"/>
     </row>
@@ -8628,7 +8044,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -8643,16 +8059,16 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Turcja</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="O158" t="n">
-        <v>3475</v>
+        <v>2</v>
       </c>
       <c r="P158" t="n">
         <v>0</v>
@@ -8660,18 +8076,14 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
-      <c r="R158" t="inlineStr">
-        <is>
-          <t>193606.1300</t>
-        </is>
+      <c r="R158" t="n">
+        <v>154.99</v>
       </c>
       <c r="S158" t="n">
         <v>0</v>
       </c>
-      <c r="T158" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T158" t="n">
+        <v>0</v>
       </c>
       <c r="U158" t="inlineStr"/>
     </row>
@@ -8681,7 +8093,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -8696,12 +8108,12 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Wyspy Turks i Caicos</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Turks and Caicos Islands (the)</t>
         </is>
       </c>
       <c r="O159" t="n">
@@ -8713,18 +8125,14 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
-      <c r="R159" t="inlineStr">
-        <is>
-          <t>154.9900</t>
-        </is>
+      <c r="R159" t="n">
+        <v>903</v>
       </c>
       <c r="S159" t="n">
         <v>0</v>
       </c>
-      <c r="T159" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T159" t="n">
+        <v>0</v>
       </c>
       <c r="U159" t="inlineStr"/>
     </row>
@@ -8734,7 +8142,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>UG</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -8749,16 +8157,16 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Wyspy Turks i Caicos</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>Turks and Caicos Islands (the)</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="O160" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P160" t="n">
         <v>0</v>
@@ -8766,18 +8174,14 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
-      <c r="R160" t="inlineStr">
-        <is>
-          <t>903.0000</t>
-        </is>
+      <c r="R160" t="n">
+        <v>5189.11</v>
       </c>
       <c r="S160" t="n">
         <v>0</v>
       </c>
-      <c r="T160" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T160" t="n">
+        <v>0</v>
       </c>
       <c r="U160" t="inlineStr"/>
     </row>
@@ -8787,7 +8191,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>UG</t>
+          <t>UA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -8802,35 +8206,31 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Ukraina</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="O161" t="n">
-        <v>24</v>
+        <v>289532</v>
       </c>
       <c r="P161" t="n">
         <v>0</v>
       </c>
       <c r="Q161" t="n">
-        <v>0</v>
-      </c>
-      <c r="R161" t="inlineStr">
-        <is>
-          <t>5189.1100</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="R161" t="n">
+        <v>14117257.06</v>
       </c>
       <c r="S161" t="n">
         <v>0</v>
       </c>
-      <c r="T161" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T161" t="n">
+        <v>13</v>
       </c>
       <c r="U161" t="inlineStr"/>
     </row>
@@ -8840,7 +8240,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -8855,35 +8255,31 @@
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr">
         <is>
-          <t>Ukraina</t>
+          <t>Zjednoczone Emiraty Arabskie</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>United Arab Emirates (the)</t>
         </is>
       </c>
       <c r="O162" t="n">
-        <v>289532</v>
+        <v>6261</v>
       </c>
       <c r="P162" t="n">
         <v>0</v>
       </c>
       <c r="Q162" t="n">
-        <v>3</v>
-      </c>
-      <c r="R162" t="inlineStr">
-        <is>
-          <t>14117257.0600</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2161517.76</v>
       </c>
       <c r="S162" t="n">
         <v>0</v>
       </c>
-      <c r="T162" t="inlineStr">
-        <is>
-          <t>13.0000</t>
-        </is>
+      <c r="T162" t="n">
+        <v>0</v>
       </c>
       <c r="U162" t="inlineStr"/>
     </row>
@@ -8893,7 +8289,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -8908,35 +8304,31 @@
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr">
         <is>
-          <t>Zjednoczone Emiraty Arabskie</t>
+          <t>Stany Zjednoczone Ameryki Polnocnej lacznie z Portoryko i Navassa</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>United Arab Emirates (the)</t>
+          <t>United States of America (the)</t>
         </is>
       </c>
       <c r="O163" t="n">
-        <v>6261</v>
+        <v>75758</v>
       </c>
       <c r="P163" t="n">
         <v>0</v>
       </c>
       <c r="Q163" t="n">
-        <v>0</v>
-      </c>
-      <c r="R163" t="inlineStr">
-        <is>
-          <t>2161517.7600</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="R163" t="n">
+        <v>9187784.75</v>
       </c>
       <c r="S163" t="n">
         <v>0</v>
       </c>
-      <c r="T163" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T163" t="n">
+        <v>500</v>
       </c>
       <c r="U163" t="inlineStr"/>
     </row>
@@ -8946,7 +8338,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>UY</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -8961,35 +8353,31 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Stany Zjednoczone Ameryki Północnej łącznie z Portoryko i Navassa</t>
+          <t>Urugwaj</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>United States of America (the)</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="O164" t="n">
-        <v>75758</v>
+        <v>84</v>
       </c>
       <c r="P164" t="n">
         <v>0</v>
       </c>
       <c r="Q164" t="n">
-        <v>1</v>
-      </c>
-      <c r="R164" t="inlineStr">
-        <is>
-          <t>9187784.7500</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="R164" t="n">
+        <v>4563.39</v>
       </c>
       <c r="S164" t="n">
         <v>0</v>
       </c>
-      <c r="T164" t="inlineStr">
-        <is>
-          <t>500.0000</t>
-        </is>
+      <c r="T164" t="n">
+        <v>0</v>
       </c>
       <c r="U164" t="inlineStr"/>
     </row>
@@ -8999,7 +8387,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>UY</t>
+          <t>UZ</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -9014,16 +8402,16 @@
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Urugwaj</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="O165" t="n">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="P165" t="n">
         <v>0</v>
@@ -9031,18 +8419,14 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
-      <c r="R165" t="inlineStr">
-        <is>
-          <t>4563.3900</t>
-        </is>
+      <c r="R165" t="n">
+        <v>14158.4</v>
       </c>
       <c r="S165" t="n">
         <v>0</v>
       </c>
-      <c r="T165" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T165" t="n">
+        <v>0</v>
       </c>
       <c r="U165" t="inlineStr"/>
     </row>
@@ -9052,7 +8436,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>UZ</t>
+          <t>VE</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -9067,16 +8451,16 @@
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Wenezuela</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Venezuela (Bolivarian Republic of)</t>
         </is>
       </c>
       <c r="O166" t="n">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="P166" t="n">
         <v>0</v>
@@ -9084,18 +8468,14 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
-      <c r="R166" t="inlineStr">
-        <is>
-          <t>14158.4000</t>
-        </is>
+      <c r="R166" t="n">
+        <v>151</v>
       </c>
       <c r="S166" t="n">
         <v>0</v>
       </c>
-      <c r="T166" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T166" t="n">
+        <v>0</v>
       </c>
       <c r="U166" t="inlineStr"/>
     </row>
@@ -9105,7 +8485,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>VE</t>
+          <t>VN</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -9120,16 +8500,16 @@
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr">
         <is>
-          <t>Wenezuela</t>
+          <t>Wietnam</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>Venezuela (Bolivarian Republic of)</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="O167" t="n">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="P167" t="n">
         <v>0</v>
@@ -9137,18 +8517,14 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
-      <c r="R167" t="inlineStr">
-        <is>
-          <t>151.0000</t>
-        </is>
+      <c r="R167" t="n">
+        <v>23295.95</v>
       </c>
       <c r="S167" t="n">
         <v>0</v>
       </c>
-      <c r="T167" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T167" t="n">
+        <v>0</v>
       </c>
       <c r="U167" t="inlineStr"/>
     </row>
@@ -9158,7 +8534,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>VN</t>
+          <t>VG</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -9173,16 +8549,16 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr">
         <is>
-          <t>Wietnam</t>
+          <t>Brytyjskie Wyspy Dziewicze</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>Virgin Islands (British)</t>
         </is>
       </c>
       <c r="O168" t="n">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="P168" t="n">
         <v>0</v>
@@ -9190,18 +8566,14 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
-      <c r="R168" t="inlineStr">
-        <is>
-          <t>23295.9500</t>
-        </is>
+      <c r="R168" t="n">
+        <v>24</v>
       </c>
       <c r="S168" t="n">
         <v>0</v>
       </c>
-      <c r="T168" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T168" t="n">
+        <v>0</v>
       </c>
       <c r="U168" t="inlineStr"/>
     </row>
@@ -9211,7 +8583,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>VG</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -9226,16 +8598,16 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Brytyjskie Wyspy Dziewicze</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>Virgin Islands (British)</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="O169" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P169" t="n">
         <v>0</v>
@@ -9243,18 +8615,14 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
-      <c r="R169" t="inlineStr">
-        <is>
-          <t>24.0000</t>
-        </is>
+      <c r="R169" t="n">
+        <v>1091.8</v>
       </c>
       <c r="S169" t="n">
         <v>0</v>
       </c>
-      <c r="T169" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T169" t="n">
+        <v>0</v>
       </c>
       <c r="U169" t="inlineStr"/>
     </row>
@@ -9264,7 +8632,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>ZW</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -9279,16 +8647,16 @@
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="O170" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="P170" t="n">
         <v>0</v>
@@ -9296,18 +8664,14 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
-      <c r="R170" t="inlineStr">
-        <is>
-          <t>1091.8000</t>
-        </is>
+      <c r="R170" t="n">
+        <v>1694.24</v>
       </c>
       <c r="S170" t="n">
         <v>0</v>
       </c>
-      <c r="T170" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="T170" t="n">
+        <v>0</v>
       </c>
       <c r="U170" t="inlineStr"/>
     </row>
@@ -9315,11 +8679,7 @@
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>ZW</t>
-        </is>
-      </c>
+      <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -9330,38 +8690,14 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="O171" t="n">
-        <v>26</v>
-      </c>
-      <c r="P171" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q171" t="n">
-        <v>0</v>
-      </c>
-      <c r="R171" t="inlineStr">
-        <is>
-          <t>1694.2400</t>
-        </is>
-      </c>
-      <c r="S171" t="n">
-        <v>0</v>
-      </c>
-      <c r="T171" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
     </row>
     <row r="172">

--- a/df6.xlsx
+++ b/df6.xlsx
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>11771</v>
+        <v>12044</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="R11" t="n">
-        <v>1008904.24</v>
+        <v>1247194.71</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>31662</v>
+        <v>31923</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>2701615.24</v>
+        <v>2929628.08</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2021</v>
+        <v>2043</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>131092.17</v>
+        <v>160105.3</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63899.18</v>
+        <v>81548.17999999999</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>73813.36</v>
+        <v>95664.44</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>114240</v>
+        <v>115747</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="R16" t="n">
-        <v>9660057.65</v>
+        <v>11451012.37</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>25070</v>
+        <v>25428</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>22</v>
       </c>
       <c r="R17" t="n">
-        <v>2287011.85</v>
+        <v>2712145.5</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>5066</v>
+        <v>5154</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>358700.21</v>
+        <v>436433.52</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>7652</v>
+        <v>7687</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>487556.29</v>
+        <v>517467.66</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>19003</v>
+        <v>19179</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1910668.76</v>
+        <v>2079236.3</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>1620</v>
+        <v>1637</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>88350.42999999999</v>
+        <v>107086.43</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>14272</v>
+        <v>14386</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>989713.3100000001</v>
+        <v>1098119.85</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>62749</v>
+        <v>63794</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>17</v>
       </c>
       <c r="R23" t="n">
-        <v>4691380.83</v>
+        <v>5657696.52</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>31329</v>
+        <v>31850</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>7133898.93</v>
+        <v>7707619.83</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>9274</v>
+        <v>9381</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>842574.46</v>
+        <v>961836.05</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>33878</v>
+        <v>34664</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>2581082.8</v>
+        <v>3251422.15</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>1569</v>
+        <v>1579</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>209624.08</v>
+        <v>220949.43</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>6759</v>
+        <v>6842</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>484218.17</v>
+        <v>576723.8</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>46538.85</v>
+        <v>67526.88</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>169824</v>
+        <v>176494</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>55</v>
       </c>
       <c r="R31" t="n">
-        <v>20379033.37</v>
+        <v>26708456.82</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>58399</v>
+        <v>58775</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>5954306.3</v>
+        <v>6390818.46</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1775</v>
+        <v>1793</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>132829.01</v>
+        <v>162375.63</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>4536</v>
+        <v>4581</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>292066.55</v>
+        <v>354481.38</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>27796</v>
+        <v>27988</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2370012.08</v>
+        <v>2562380.91</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>1054</v>
+        <v>1068</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>62873.74</v>
+        <v>76924.12</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>42104</v>
+        <v>42865</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>3254563.86</v>
+        <v>4112712.57</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>4217</v>
+        <v>4294</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>241890.73</v>
+        <v>328579.32</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>17685</v>
+        <v>17960</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1245771.56</v>
+        <v>1475138.77</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>593942</v>
+        <v>595745</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>11</v>
       </c>
       <c r="R41" t="n">
-        <v>36464493.21</v>
+        <v>38322657.12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="O42" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>20872.02</v>
+        <v>21472.02</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2560.84</v>
+        <v>3015.84</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>13562.35</v>
+        <v>14032.35</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="O48" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>13972.05</v>
+        <v>19840.93</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="O50" t="n">
-        <v>6956</v>
+        <v>7054</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>510121.9</v>
+        <v>739911.33</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="O51" t="n">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>71261.28</v>
+        <v>75051.24000000001</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="O53" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>13941.48</v>
+        <v>15731.84</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>18073</v>
+        <v>18352</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>918101.72</v>
+        <v>4481773.69</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         </is>
       </c>
       <c r="O58" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>1383.33</v>
+        <v>25803.33</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="O60" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>8652.99</v>
+        <v>10102.99</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="O62" t="n">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>74995.19</v>
+        <v>78197.99000000001</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="O67" t="n">
-        <v>7685</v>
+        <v>7764</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>807501.86</v>
+        <v>895573.63</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>178540.39</v>
+        <v>187159.39</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>32179.36</v>
+        <v>34207.16</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>21201.11</v>
+        <v>24280.2</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="O80" t="n">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>64431.11</v>
+        <v>72000.44</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="O84" t="n">
-        <v>2998</v>
+        <v>3028</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>183979.42</v>
+        <v>212607.64</v>
       </c>
       <c r="S84" t="n">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="O89" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>6126.88</v>
+        <v>7099.78</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="O92" t="n">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>57365.26</v>
+        <v>67124.84</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -4883,7 +4883,7 @@
         </is>
       </c>
       <c r="O93" t="n">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>77024.75</v>
+        <v>95961.35000000001</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="O94" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="R94" t="n">
-        <v>11901.57</v>
+        <v>12365.57</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="O96" t="n">
-        <v>4298</v>
+        <v>4376</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>385239.44</v>
+        <v>455524.72</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="O98" t="n">
-        <v>1236</v>
+        <v>1247</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="R98" t="n">
-        <v>85781.84</v>
+        <v>99726.69</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="O100" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="R100" t="n">
-        <v>13507.98</v>
+        <v>14007.98</v>
       </c>
       <c r="S100" t="n">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="O101" t="n">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="R101" t="n">
-        <v>110823.37</v>
+        <v>114251.1</v>
       </c>
       <c r="S101" t="n">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="O103" t="n">
-        <v>3411</v>
+        <v>3526</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="R103" t="n">
-        <v>562824.71</v>
+        <v>706347.04</v>
       </c>
       <c r="S103" t="n">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="O104" t="n">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>55232.82</v>
+        <v>66388.82000000001</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="O107" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="R107" t="n">
-        <v>978.21</v>
+        <v>5688.21</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="O111" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="R111" t="n">
-        <v>14269.25</v>
+        <v>16924.25</v>
       </c>
       <c r="S111" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="O114" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="R114" t="n">
-        <v>1597.02</v>
+        <v>7465.34</v>
       </c>
       <c r="S114" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         </is>
       </c>
       <c r="O115" t="n">
-        <v>1539</v>
+        <v>1550</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="R115" t="n">
-        <v>100583.83</v>
+        <v>108915.15</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -6010,7 +6010,7 @@
         </is>
       </c>
       <c r="O116" t="n">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="R116" t="n">
-        <v>54883.7</v>
+        <v>69282.35000000001</v>
       </c>
       <c r="S116" t="n">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         </is>
       </c>
       <c r="O118" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>17949.99</v>
+        <v>20049.99</v>
       </c>
       <c r="S118" t="n">
         <v>0</v>
@@ -6157,7 +6157,7 @@
         </is>
       </c>
       <c r="O119" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="R119" t="n">
-        <v>4435.21</v>
+        <v>5035.21</v>
       </c>
       <c r="S119" t="n">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="O124" t="n">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="R124" t="n">
-        <v>66242.42</v>
+        <v>69200.42</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="O127" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P127" t="n">
         <v>0</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="R127" t="n">
-        <v>16785.91</v>
+        <v>17505.91</v>
       </c>
       <c r="S127" t="n">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="O128" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P128" t="n">
         <v>0</v>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="R128" t="n">
-        <v>22385.55</v>
+        <v>24577.87</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="O135" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="P135" t="n">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="R135" t="n">
-        <v>16883.08</v>
+        <v>25124.58</v>
       </c>
       <c r="S135" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="O136" t="n">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="P136" t="n">
         <v>0</v>
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="R136" t="n">
-        <v>98035.59</v>
+        <v>105685.76</v>
       </c>
       <c r="S136" t="n">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="O140" t="n">
-        <v>3611</v>
+        <v>3619</v>
       </c>
       <c r="P140" t="n">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>262258.31</v>
+        <v>269310.07</v>
       </c>
       <c r="S140" t="n">
         <v>0</v>
@@ -7284,7 +7284,7 @@
         </is>
       </c>
       <c r="O142" t="n">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="P142" t="n">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="R142" t="n">
-        <v>43159.26</v>
+        <v>48295.2</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>
@@ -7431,7 +7431,7 @@
         </is>
       </c>
       <c r="O145" t="n">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="P145" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="R145" t="n">
-        <v>106820.55</v>
+        <v>113126.55</v>
       </c>
       <c r="S145" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="O148" t="n">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="P148" t="n">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="R148" t="n">
-        <v>37782.85</v>
+        <v>55269.97</v>
       </c>
       <c r="S148" t="n">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         </is>
       </c>
       <c r="O150" t="n">
-        <v>8676</v>
+        <v>8955</v>
       </c>
       <c r="P150" t="n">
         <v>0</v>
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
       <c r="R150" t="n">
-        <v>1024804.87</v>
+        <v>1342765.15</v>
       </c>
       <c r="S150" t="n">
         <v>0</v>
@@ -7725,7 +7725,7 @@
         </is>
       </c>
       <c r="O151" t="n">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="P151" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="R151" t="n">
-        <v>56884.44</v>
+        <v>63758.22</v>
       </c>
       <c r="S151" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="O154" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P154" t="n">
         <v>0</v>
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="R154" t="n">
-        <v>25605.61</v>
+        <v>26405.61</v>
       </c>
       <c r="S154" t="n">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         </is>
       </c>
       <c r="O157" t="n">
-        <v>3475</v>
+        <v>3506</v>
       </c>
       <c r="P157" t="n">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="R157" t="n">
-        <v>193606.13</v>
+        <v>227800.59</v>
       </c>
       <c r="S157" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         </is>
       </c>
       <c r="O161" t="n">
-        <v>289532</v>
+        <v>291474</v>
       </c>
       <c r="P161" t="n">
         <v>0</v>
@@ -8224,7 +8224,7 @@
         <v>3</v>
       </c>
       <c r="R161" t="n">
-        <v>14117257.06</v>
+        <v>16760075.96</v>
       </c>
       <c r="S161" t="n">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="O162" t="n">
-        <v>6261</v>
+        <v>6359</v>
       </c>
       <c r="P162" t="n">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="R162" t="n">
-        <v>2161517.76</v>
+        <v>2306450.42</v>
       </c>
       <c r="S162" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         </is>
       </c>
       <c r="O163" t="n">
-        <v>75758</v>
+        <v>76396</v>
       </c>
       <c r="P163" t="n">
         <v>0</v>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="R163" t="n">
-        <v>9187784.75</v>
+        <v>10445015.98</v>
       </c>
       <c r="S163" t="n">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="O165" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P165" t="n">
         <v>0</v>
@@ -8420,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="R165" t="n">
-        <v>14158.4</v>
+        <v>20575.4</v>
       </c>
       <c r="S165" t="n">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         </is>
       </c>
       <c r="O166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P166" t="n">
         <v>0</v>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="R166" t="n">
-        <v>151</v>
+        <v>609.5</v>
       </c>
       <c r="S166" t="n">
         <v>0</v>
@@ -8509,7 +8509,7 @@
         </is>
       </c>
       <c r="O167" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P167" t="n">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="R167" t="n">
-        <v>23295.95</v>
+        <v>23825.95</v>
       </c>
       <c r="S167" t="n">
         <v>0</v>
@@ -8656,7 +8656,7 @@
         </is>
       </c>
       <c r="O170" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P170" t="n">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="R170" t="n">
-        <v>1694.24</v>
+        <v>16294.24</v>
       </c>
       <c r="S170" t="n">
         <v>0</v>

--- a/df6.xlsx
+++ b/df6.xlsx
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>12044</v>
+        <v>8145</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="R11" t="n">
-        <v>1247194.71</v>
+        <v>978518</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2811.69</v>
+        <v>1865.45</v>
       </c>
       <c r="U11" t="inlineStr"/>
     </row>
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>31923</v>
+        <v>21802</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2929628.08</v>
+        <v>1924052.53</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="U12" t="inlineStr"/>
     </row>
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2043</v>
+        <v>1937</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>160105.3</v>
+        <v>133623.39</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U13" t="inlineStr"/>
     </row>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>999</v>
+        <v>1073</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>81548.17999999999</v>
+        <v>118402.86</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>799</v>
+        <v>839</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95664.44</v>
+        <v>81835.3</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1095,22 +1095,22 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>115747</v>
+        <v>57500</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>11451012.37</v>
+        <v>7367955.4</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>107.5</v>
+        <v>10</v>
       </c>
       <c r="U16" t="inlineStr"/>
     </row>
@@ -1144,22 +1144,22 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>25428</v>
+        <v>15127</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="R17" t="n">
-        <v>2712145.5</v>
+        <v>1767465.73</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1538.68</v>
+        <v>479</v>
       </c>
       <c r="U17" t="inlineStr"/>
     </row>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>5154</v>
+        <v>1583</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>436433.52</v>
+        <v>144548.59</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>7687</v>
+        <v>4418</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>517467.66</v>
+        <v>309116.9</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>19179</v>
+        <v>12654</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2079236.3</v>
+        <v>1236157.86</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>1637</v>
+        <v>2481</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>107086.43</v>
+        <v>156681.54</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>14386</v>
+        <v>15294</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1098119.85</v>
+        <v>1034025.49</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -1438,22 +1438,22 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>63794</v>
+        <v>32168</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>5657696.52</v>
+        <v>3073814.01</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1320</v>
+        <v>630</v>
       </c>
       <c r="U23" t="inlineStr"/>
     </row>
@@ -1487,22 +1487,22 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>31850</v>
+        <v>23907</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7707619.83</v>
+        <v>6092986.72</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U24" t="inlineStr"/>
     </row>
@@ -1536,22 +1536,22 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>9381</v>
+        <v>5060</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>961836.05</v>
+        <v>597256.34</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="U25" t="inlineStr"/>
     </row>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4210.58</v>
+        <v>2114.9</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>34664</v>
+        <v>16331</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
-        <v>3251422.15</v>
+        <v>1876315.53</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="U27" t="inlineStr"/>
     </row>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>1579</v>
+        <v>791</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>220949.43</v>
+        <v>115225.97</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>6842</v>
+        <v>3183</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>576723.8</v>
+        <v>303320.02</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>708</v>
+        <v>856</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>67526.88</v>
+        <v>67387.67</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -1830,22 +1830,22 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>176494</v>
+        <v>106402</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="R31" t="n">
-        <v>26708456.82</v>
+        <v>18531390.19</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1493</v>
+        <v>1795</v>
       </c>
       <c r="U31" t="inlineStr"/>
     </row>
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>58775</v>
+        <v>35605</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>6390818.46</v>
+        <v>3689014.28</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="U32" t="inlineStr"/>
     </row>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>1793</v>
+        <v>2492</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>162375.63</v>
+        <v>176693.84</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>4581</v>
+        <v>3602</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -1986,13 +1986,13 @@
         <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>354481.38</v>
+        <v>329894.48</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="U34" t="inlineStr"/>
     </row>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>27988</v>
+        <v>22870</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2562380.91</v>
+        <v>2434670.4</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>1068</v>
+        <v>794</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>76924.12</v>
+        <v>71633.38</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>42865</v>
+        <v>19779</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4112712.57</v>
+        <v>2148920.1</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="U37" t="inlineStr"/>
     </row>
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>4294</v>
+        <v>5534</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>328579.32</v>
+        <v>386339.49</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>17960</v>
+        <v>18001</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1475138.77</v>
+        <v>1467969</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -2335,22 +2335,22 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>595745</v>
+        <v>447259</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>38322657.12</v>
+        <v>29744985.3</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1543.9</v>
+        <v>331.3</v>
       </c>
       <c r="U41" t="inlineStr"/>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>D09</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2375,16 +2375,16 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Pozostale kraje</t>
+          <t>Andora</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Extra UE not allocated</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>473</v>
+        <v>35</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21472.02</v>
+        <v>2236.55</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2424,16 +2424,16 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Zjednoczone Emiraty Arabskie</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>United Arab Emirates (the)</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>52</v>
+        <v>2454</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3015.84</v>
+        <v>323006.3799999999</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DZ</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2473,16 +2473,16 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Algieria</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>207.61</v>
+        <v>6149.37</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2522,16 +2522,16 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Andora</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8225.280000000001</v>
+        <v>17452.75</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="O46" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>655.1799999999999</v>
+        <v>4786</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="O47" t="n">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>14032.35</v>
+        <v>10842.61</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2669,16 +2669,16 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>248</v>
+        <v>3460</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>19840.93</v>
+        <v>255387.04</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>177.99</v>
+        <v>6</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2767,16 +2767,16 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Azerbejdzan</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>7054</v>
+        <v>1690</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>739911.33</v>
+        <v>79680.81</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2816,16 +2816,16 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Azerbejdzan</t>
+          <t>Bosnia i Hercegowina</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>1137</v>
+        <v>190</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>75051.24000000001</v>
+        <v>11884.57</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2865,16 +2865,16 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Bahamy</t>
+          <t>Bangladesz</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Bahamas (the)</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="O52" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>789.8</v>
+        <v>1551.74</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>BF</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2914,16 +2914,16 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Bahrajn</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>15731.84</v>
+        <v>121.5</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2963,16 +2963,16 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Bangladesz</t>
+          <t>Bahrajn</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="O54" t="n">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>1251.4</v>
+        <v>4078.92</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BJ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -3012,16 +3012,16 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="O55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>635</v>
+        <v>213</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BY</t>
+          <t>BM</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -3061,31 +3061,31 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Bialorus</t>
+          <t>Bermudy</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="O56" t="n">
-        <v>18352</v>
+        <v>3</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>4481773.69</v>
+        <v>104.47</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U56" t="inlineStr"/>
     </row>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BZ</t>
+          <t>BN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -3110,16 +3110,16 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="O57" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>524</v>
+        <v>1329.99</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BM</t>
+          <t>BO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -3159,16 +3159,16 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Bermudy</t>
+          <t>Boliwia</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Bolivia (Plurinational State of)</t>
         </is>
       </c>
       <c r="O58" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>25803.33</v>
+        <v>133</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BO</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -3208,16 +3208,16 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Boliwia</t>
+          <t>Brazylia</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Bolivia (Plurinational State of)</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="O59" t="n">
-        <v>15</v>
+        <v>1014</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>1155.3</v>
+        <v>55299.9</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -3257,16 +3257,16 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Bosnia i Hercegowina</t>
+          <t>Bahamy</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Bahamas (the)</t>
         </is>
       </c>
       <c r="O60" t="n">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>10102.99</v>
+        <v>255</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>257.5</v>
+        <v>230</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>BY</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -3355,16 +3355,16 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Brazylia</t>
+          <t>Bialorus</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="O62" t="n">
-        <v>1278</v>
+        <v>14704</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>78197.99000000001</v>
+        <v>5282677.54</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3404,16 +3404,16 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Kanada</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="O63" t="n">
-        <v>16</v>
+        <v>4097</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>1867.6</v>
+        <v>463601.03</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CV</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3453,16 +3453,16 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Wyspy Zielonego Przyladka</t>
+          <t>Demokratyczna Republika Konga</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Congo (the Democratic Republic of the)</t>
         </is>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>13</v>
+        <v>3419.96</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>KH</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3502,31 +3502,31 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Kambodza (Kampucza)</t>
+          <t>Szwajcaria</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="O65" t="n">
-        <v>4</v>
+        <v>6274</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R65" t="n">
-        <v>292</v>
+        <v>1164148.37</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U65" t="inlineStr"/>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3551,16 +3551,16 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Kamerun</t>
+          <t>Wybrzeze Kosci Sloniowej</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="O66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>1023</v>
+        <v>946.1799999999999</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3600,16 +3600,16 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Kanada</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="O67" t="n">
-        <v>7764</v>
+        <v>227</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>895573.63</v>
+        <v>18716.7</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3649,16 +3649,16 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Kajmany</t>
+          <t>Chiny</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Cayman Islands (the)</t>
+          <t>China</t>
         </is>
       </c>
       <c r="O68" t="n">
-        <v>47</v>
+        <v>3003</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>3505.96</v>
+        <v>209890.13</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3698,16 +3698,16 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Kolumbia</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="O69" t="n">
-        <v>440</v>
+        <v>579</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>26487.85</v>
+        <v>45415.17999999999</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3747,16 +3747,16 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Chiny</t>
+          <t>Kostaryka</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="O70" t="n">
-        <v>2002</v>
+        <v>183</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>187159.39</v>
+        <v>19166.83</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CW</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3796,16 +3796,16 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Kolumbia</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Curaçao</t>
         </is>
       </c>
       <c r="O71" t="n">
-        <v>634</v>
+        <v>2</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>34207.16</v>
+        <v>54</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>D09</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3845,16 +3845,16 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Demokratyczna Republika Konga</t>
+          <t>Pozostale kraje</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Congo (the Democratic Republic of the)</t>
+          <t>Extra UE not allocated</t>
         </is>
       </c>
       <c r="O72" t="n">
-        <v>10</v>
+        <v>626</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>1694.7</v>
+        <v>27583.7</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>DO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3894,16 +3894,16 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Kongo</t>
+          <t>Republika Dominikany</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Congo (the)</t>
+          <t>Dominican Republic (the)</t>
         </is>
       </c>
       <c r="O73" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>71.8</v>
+        <v>895.99</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>DZ</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3943,16 +3943,16 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Kostaryka</t>
+          <t>Algieria</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="O74" t="n">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>24280.2</v>
+        <v>251</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3992,16 +3992,16 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Wybrzeze Kosci Sloniowej</t>
+          <t>Ekwador</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Côte d'Ivoire</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="O75" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>342.65</v>
+        <v>2589.28</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CW</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -4041,16 +4041,16 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Egipt</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Curaçao</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="O76" t="n">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>68</v>
+        <v>42179.85</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>ET</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -4090,16 +4090,16 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Dzibuti</t>
+          <t>Etiopia</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>65</v>
+        <v>509</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DO</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -4139,16 +4139,16 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Republika Dominikany</t>
+          <t>Gruzja</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Dominican Republic (the)</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="O78" t="n">
-        <v>37</v>
+        <v>2688</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>2074.49</v>
+        <v>185508.64</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>GH</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -4188,16 +4188,16 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Ekwador</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="O79" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>5245.93</v>
+        <v>17261.64</v>
       </c>
       <c r="S79" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>GI</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -4237,16 +4237,16 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Egipt</t>
+          <t>Gibraltar</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Gibraltar</t>
         </is>
       </c>
       <c r="O80" t="n">
-        <v>325</v>
+        <v>10</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>72000.44</v>
+        <v>715.8199999999999</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SV</t>
+          <t>GN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -4286,16 +4286,16 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Salwador</t>
+          <t>Gwinea</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="O81" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>2876.79</v>
+        <v>178.79</v>
       </c>
       <c r="S81" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -4335,16 +4335,16 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Etiopia</t>
+          <t>Gwatemala</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="O82" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="R82" t="n">
-        <v>25</v>
+        <v>7606.28</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -4384,16 +4384,16 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Hongkong</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>491</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>250</v>
+        <v>115354.15</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>HN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -4433,16 +4433,16 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Gruzja</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="O84" t="n">
-        <v>3028</v>
+        <v>36</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>212607.64</v>
+        <v>2691.34</v>
       </c>
       <c r="S84" t="n">
         <v>0</v>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>HT</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4482,16 +4482,16 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="O85" t="n">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>13315.55</v>
+        <v>6.9</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GI</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -4531,16 +4531,16 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Gibraltar</t>
+          <t>Indonezja</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Gibraltar</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="O86" t="n">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>2192</v>
+        <v>23422.4</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4580,16 +4580,16 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Izrael</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>1644</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>57</v>
+        <v>141593.21</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4629,16 +4629,16 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Guam</t>
+          <t>Indie</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Guam</t>
+          <t>India</t>
         </is>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>88.40000000000001</v>
+        <v>75901.62</v>
       </c>
       <c r="S88" t="n">
         <v>0</v>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4678,16 +4678,16 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Gwatemala</t>
+          <t>Irak</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="O89" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>7099.78</v>
+        <v>5213.34</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>JM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4727,16 +4727,16 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Watykan</t>
+          <t>Jamajka</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Holy See (the)</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="O90" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>1245.3</v>
+        <v>367.05</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HN</t>
+          <t>JO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4776,16 +4776,16 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Jordania</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="O91" t="n">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="R91" t="n">
-        <v>860.96</v>
+        <v>7331.790000000001</v>
       </c>
       <c r="S91" t="n">
         <v>0</v>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4825,16 +4825,16 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Hongkong</t>
+          <t>Japonia</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="O92" t="n">
-        <v>619</v>
+        <v>995</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>67124.84</v>
+        <v>116198.16</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4874,16 +4874,16 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Indie</t>
+          <t>Kenia</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="O93" t="n">
-        <v>1016</v>
+        <v>87</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>95961.35000000001</v>
+        <v>4061.71</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4923,16 +4923,16 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Indonezja</t>
+          <t>Kirgistan</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="O94" t="n">
-        <v>143</v>
+        <v>306</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="R94" t="n">
-        <v>12365.57</v>
+        <v>15504.23</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>KH</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4972,16 +4972,16 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Irak</t>
+          <t>Kambodza (Kampucza)</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="O95" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="R95" t="n">
-        <v>4648.79</v>
+        <v>1183.1</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -5021,16 +5021,16 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Izrael</t>
+          <t>Korea Poludniowa</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Korea (the Republic of)</t>
         </is>
       </c>
       <c r="O96" t="n">
-        <v>4376</v>
+        <v>3047</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>455524.72</v>
+        <v>521438.37</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>KW</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -5070,16 +5070,16 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Jamajka</t>
+          <t>Kuwejt</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="O97" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="R97" t="n">
-        <v>158.1</v>
+        <v>5325.29</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -5119,16 +5119,16 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Japonia</t>
+          <t>Kajmany</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Cayman Islands (the)</t>
         </is>
       </c>
       <c r="O98" t="n">
-        <v>1247</v>
+        <v>31</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="R98" t="n">
-        <v>99726.69</v>
+        <v>1801.1</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JE</t>
+          <t>KZ</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -5168,16 +5168,16 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Jersey</t>
+          <t>Kazachstan</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Jersey</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="O99" t="n">
-        <v>1</v>
+        <v>2901</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="R99" t="n">
-        <v>9</v>
+        <v>204619.34</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JO</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -5217,16 +5217,16 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Jordania</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Lao People's Democratic Republic (the)</t>
         </is>
       </c>
       <c r="O100" t="n">
-        <v>193</v>
+        <v>6</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="R100" t="n">
-        <v>14007.98</v>
+        <v>213.63</v>
       </c>
       <c r="S100" t="n">
         <v>0</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -5266,16 +5266,16 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Kazachstan</t>
+          <t>Liban</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="O101" t="n">
-        <v>2124</v>
+        <v>8</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="R101" t="n">
-        <v>114251.1</v>
+        <v>899.6</v>
       </c>
       <c r="S101" t="n">
         <v>0</v>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KE</t>
+          <t>LK</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -5315,16 +5315,16 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Kenia</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="O102" t="n">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="R102" t="n">
-        <v>8907.1</v>
+        <v>856.9</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>LY</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -5364,16 +5364,16 @@
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Korea Poludniowa</t>
+          <t>Libia</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Korea (the Republic of)</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="O103" t="n">
-        <v>3526</v>
+        <v>3</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="R103" t="n">
-        <v>706347.04</v>
+        <v>514.92</v>
       </c>
       <c r="S103" t="n">
         <v>0</v>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KW</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -5413,16 +5413,16 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Kuwejt</t>
+          <t>Maroko</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="O104" t="n">
-        <v>467</v>
+        <v>92</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>66388.82000000001</v>
+        <v>4215.32</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -5462,16 +5462,16 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Kirgistan</t>
+          <t>Moldowa</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Moldova (the Republic of)</t>
         </is>
       </c>
       <c r="O105" t="n">
-        <v>232</v>
+        <v>787</v>
       </c>
       <c r="P105" t="n">
         <v>0</v>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="R105" t="n">
-        <v>10268.34</v>
+        <v>88374.56</v>
       </c>
       <c r="S105" t="n">
         <v>0</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -5511,16 +5511,16 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Czarnogora</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Lao People's Democratic Republic (the)</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="O106" t="n">
-        <v>10</v>
+        <v>371</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="R106" t="n">
-        <v>8763.059999999999</v>
+        <v>25136.65</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -5560,16 +5560,16 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Liban</t>
+          <t>Madagaskar</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="O107" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="R107" t="n">
-        <v>5688.21</v>
+        <v>26</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>LY</t>
+          <t>MK</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -5609,16 +5609,16 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Libia</t>
+          <t>Macedonia</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="O108" t="n">
-        <v>3</v>
+        <v>304</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="R108" t="n">
-        <v>69</v>
+        <v>14139.34</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>ML</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -5658,16 +5658,16 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Makao</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Macao</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="O109" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="R109" t="n">
-        <v>1060.7</v>
+        <v>131</v>
       </c>
       <c r="S109" t="n">
         <v>0</v>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MW</t>
+          <t>MM</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -5707,16 +5707,16 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Myanmar (Birma)</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="O110" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="R110" t="n">
-        <v>50</v>
+        <v>6773.26</v>
       </c>
       <c r="S110" t="n">
         <v>0</v>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MY</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -5756,16 +5756,16 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Malezja</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="O111" t="n">
-        <v>279</v>
+        <v>85</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="R111" t="n">
-        <v>16924.25</v>
+        <v>4122.6</v>
       </c>
       <c r="S111" t="n">
         <v>0</v>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MV</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -5805,16 +5805,16 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Malediwy</t>
+          <t>Makao</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Macao</t>
         </is>
       </c>
       <c r="O112" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P112" t="n">
         <v>0</v>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="R112" t="n">
-        <v>239</v>
+        <v>4635.5</v>
       </c>
       <c r="S112" t="n">
         <v>0</v>
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="O113" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="R113" t="n">
-        <v>335.9</v>
+        <v>29.7</v>
       </c>
       <c r="S113" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="O114" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="R114" t="n">
-        <v>7465.34</v>
+        <v>2515.23</v>
       </c>
       <c r="S114" t="n">
         <v>0</v>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>MV</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5952,16 +5952,16 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Meksyk</t>
+          <t>Malediwy</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="O115" t="n">
-        <v>1550</v>
+        <v>3</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="R115" t="n">
-        <v>108915.15</v>
+        <v>445</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>MW</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -6001,16 +6001,16 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Moldowa</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>Moldova (the Republic of)</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="O116" t="n">
-        <v>754</v>
+        <v>5</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="R116" t="n">
-        <v>69282.35000000001</v>
+        <v>184.09</v>
       </c>
       <c r="S116" t="n">
         <v>0</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -6050,16 +6050,16 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Meksyk</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="O117" t="n">
-        <v>53</v>
+        <v>1157</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="R117" t="n">
-        <v>8917.34</v>
+        <v>103691.76</v>
       </c>
       <c r="S117" t="n">
         <v>0</v>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>MY</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -6099,16 +6099,16 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Czarnogora</t>
+          <t>Malezja</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="O118" t="n">
-        <v>162</v>
+        <v>286</v>
       </c>
       <c r="P118" t="n">
         <v>0</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>20049.99</v>
+        <v>22616.25</v>
       </c>
       <c r="S118" t="n">
         <v>0</v>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>MZ</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -6148,16 +6148,16 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Maroko</t>
+          <t>Mozambik</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="O119" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="R119" t="n">
-        <v>5035.21</v>
+        <v>771.4000000000001</v>
       </c>
       <c r="S119" t="n">
         <v>0</v>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MZ</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -6197,16 +6197,16 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Mozambik</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="O120" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="R120" t="n">
-        <v>2160.43</v>
+        <v>817</v>
       </c>
       <c r="S120" t="n">
         <v>0</v>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -6246,16 +6246,16 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Myanmar (Birma)</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="O121" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="P121" t="n">
         <v>0</v>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="R121" t="n">
-        <v>2784.55</v>
+        <v>3557.19</v>
       </c>
       <c r="S121" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NI</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -6295,16 +6295,16 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Nikaragua</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="O122" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="R122" t="n">
-        <v>1387.97</v>
+        <v>153</v>
       </c>
       <c r="S122" t="n">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="O123" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P123" t="n">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="R123" t="n">
-        <v>544.33</v>
+        <v>193</v>
       </c>
       <c r="S123" t="n">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="O124" t="n">
-        <v>984</v>
+        <v>380</v>
       </c>
       <c r="P124" t="n">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="R124" t="n">
-        <v>69200.42</v>
+        <v>20773.43</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -6442,16 +6442,16 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Nikaragua</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="O125" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="P125" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="R125" t="n">
-        <v>699.14</v>
+        <v>6886.68</v>
       </c>
       <c r="S125" t="n">
         <v>0</v>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -6491,16 +6491,16 @@
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="O126" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="P126" t="n">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="R126" t="n">
-        <v>2409.24</v>
+        <v>6625.67</v>
       </c>
       <c r="S126" t="n">
         <v>0</v>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MK</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -6540,16 +6540,16 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Macedonia</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="O127" t="n">
-        <v>316</v>
+        <v>100</v>
       </c>
       <c r="P127" t="n">
         <v>0</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="R127" t="n">
-        <v>17505.91</v>
+        <v>11193.68</v>
       </c>
       <c r="S127" t="n">
         <v>0</v>
@@ -6574,7 +6574,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -6589,16 +6589,16 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Papua Nowa Gwinea</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="O128" t="n">
-        <v>272</v>
+        <v>2</v>
       </c>
       <c r="P128" t="n">
         <v>0</v>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="R128" t="n">
-        <v>24577.87</v>
+        <v>373</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -6638,16 +6638,16 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Filipiny</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines (the)</t>
         </is>
       </c>
       <c r="O129" t="n">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="P129" t="n">
         <v>0</v>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="R129" t="n">
-        <v>601.1</v>
+        <v>24579.55</v>
       </c>
       <c r="S129" t="n">
         <v>0</v>
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -6687,16 +6687,16 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Palestyna</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>Palestine, State of</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="O130" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P130" t="n">
         <v>0</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="R130" t="n">
-        <v>1807.06</v>
+        <v>2343</v>
       </c>
       <c r="S130" t="n">
         <v>0</v>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -6736,16 +6736,16 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Palestyna</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Palestine, State of</t>
         </is>
       </c>
       <c r="O131" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="P131" t="n">
         <v>0</v>
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="R131" t="n">
-        <v>6909.8</v>
+        <v>1356.14</v>
       </c>
       <c r="S131" t="n">
         <v>0</v>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PY</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -6785,16 +6785,16 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Papua Nowa Gwinea</t>
+          <t>Paragwaj</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="O132" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="R132" t="n">
-        <v>62.16</v>
+        <v>434.8</v>
       </c>
       <c r="S132" t="n">
         <v>0</v>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PY</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -6834,16 +6834,16 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Paragwaj</t>
+          <t>Katar</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="O133" t="n">
-        <v>1</v>
+        <v>660</v>
       </c>
       <c r="P133" t="n">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="R133" t="n">
-        <v>880</v>
+        <v>45358.46</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -6883,16 +6883,16 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="O134" t="n">
-        <v>198</v>
+        <v>581</v>
       </c>
       <c r="P134" t="n">
         <v>0</v>
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="R134" t="n">
-        <v>17965.35</v>
+        <v>37105.77</v>
       </c>
       <c r="S134" t="n">
         <v>0</v>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -6932,16 +6932,16 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Filipiny</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>Philippines (the)</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="O135" t="n">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="P135" t="n">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="R135" t="n">
-        <v>25124.58</v>
+        <v>1002.44</v>
       </c>
       <c r="S135" t="n">
         <v>0</v>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -6981,16 +6981,16 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Katar</t>
+          <t>Arabia Saudyjska</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="O136" t="n">
-        <v>735</v>
+        <v>963</v>
       </c>
       <c r="P136" t="n">
         <v>0</v>
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="R136" t="n">
-        <v>105685.76</v>
+        <v>72670.46000000001</v>
       </c>
       <c r="S136" t="n">
         <v>0</v>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -7030,16 +7030,16 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Seszele</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="O137" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="P137" t="n">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="R137" t="n">
-        <v>1610.76</v>
+        <v>154</v>
       </c>
       <c r="S137" t="n">
         <v>0</v>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -7079,16 +7079,16 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Saint Kitts i Nevis</t>
+          <t>Singapur</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="O138" t="n">
-        <v>1</v>
+        <v>682</v>
       </c>
       <c r="P138" t="n">
         <v>0</v>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="R138" t="n">
-        <v>49</v>
+        <v>89544.78</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SL</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -7128,16 +7128,16 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="O139" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="P139" t="n">
         <v>0</v>
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="R139" t="n">
-        <v>3145.3</v>
+        <v>15</v>
       </c>
       <c r="S139" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -7177,16 +7177,16 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Arabia Saudyjska</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="O140" t="n">
-        <v>3619</v>
+        <v>6</v>
       </c>
       <c r="P140" t="n">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>269310.07</v>
+        <v>315.3</v>
       </c>
       <c r="S140" t="n">
         <v>0</v>
@@ -7235,7 +7235,7 @@
         </is>
       </c>
       <c r="O141" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P141" t="n">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="R141" t="n">
-        <v>199.44</v>
+        <v>840.61</v>
       </c>
       <c r="S141" t="n">
         <v>0</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -7275,16 +7275,16 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="O142" t="n">
-        <v>530</v>
+        <v>1</v>
       </c>
       <c r="P142" t="n">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="R142" t="n">
-        <v>48295.2</v>
+        <v>37.21</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -7324,16 +7324,16 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Seszele</t>
+          <t>Salwador</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="O143" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="P143" t="n">
         <v>0</v>
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="R143" t="n">
-        <v>186</v>
+        <v>2172.3</v>
       </c>
       <c r="S143" t="n">
         <v>0</v>
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SL</t>
+          <t>SZ</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -7373,12 +7373,12 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Eswatin</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="O144" t="n">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="R144" t="n">
-        <v>1000</v>
+        <v>83.97999999999999</v>
       </c>
       <c r="S144" t="n">
         <v>0</v>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -7422,16 +7422,16 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Singapur</t>
+          <t>Tajlandia</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="O145" t="n">
-        <v>785</v>
+        <v>277</v>
       </c>
       <c r="P145" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="R145" t="n">
-        <v>113126.55</v>
+        <v>18171.74</v>
       </c>
       <c r="S145" t="n">
         <v>0</v>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>TJ</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -7471,16 +7471,16 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Sint Maarten</t>
+          <t>Tadzykistan</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>Sint Maarten (Dutch part)</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="O146" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="P146" t="n">
         <v>0</v>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="R146" t="n">
-        <v>67</v>
+        <v>15475.58</v>
       </c>
       <c r="S146" t="n">
         <v>0</v>
@@ -7505,7 +7505,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -7520,12 +7520,12 @@
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="O147" t="n">
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="R147" t="n">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="S147" t="n">
         <v>0</v>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -7569,16 +7569,16 @@
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Republika Poludniowej Afryki</t>
+          <t>Tunezja</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="O148" t="n">
-        <v>437</v>
+        <v>4</v>
       </c>
       <c r="P148" t="n">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="R148" t="n">
-        <v>55269.97</v>
+        <v>787</v>
       </c>
       <c r="S148" t="n">
         <v>0</v>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>LK</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -7618,16 +7618,16 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Turcja</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="O149" t="n">
-        <v>17</v>
+        <v>4158</v>
       </c>
       <c r="P149" t="n">
         <v>0</v>
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="R149" t="n">
-        <v>781.25</v>
+        <v>268266.55</v>
       </c>
       <c r="S149" t="n">
         <v>0</v>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -7667,31 +7667,31 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Szwajcaria</t>
+          <t>Trynidad i Tobago</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="O150" t="n">
-        <v>8955</v>
+        <v>7</v>
       </c>
       <c r="P150" t="n">
         <v>0</v>
       </c>
       <c r="Q150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R150" t="n">
-        <v>1342765.15</v>
+        <v>731.26</v>
       </c>
       <c r="S150" t="n">
         <v>0</v>
       </c>
       <c r="T150" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U150" t="inlineStr"/>
     </row>
@@ -7725,7 +7725,7 @@
         </is>
       </c>
       <c r="O151" t="n">
-        <v>708</v>
+        <v>952</v>
       </c>
       <c r="P151" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="R151" t="n">
-        <v>63758.22</v>
+        <v>68090.39999999999</v>
       </c>
       <c r="S151" t="n">
         <v>0</v>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TJ</t>
+          <t>TZ</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -7765,16 +7765,16 @@
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Tadzykistan</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Tanzania, the United Republic of</t>
         </is>
       </c>
       <c r="O152" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="P152" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="R152" t="n">
-        <v>4062.71</v>
+        <v>1443.69</v>
       </c>
       <c r="S152" t="n">
         <v>0</v>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TZ</t>
+          <t>UA</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -7814,31 +7814,31 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Ukraina</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>Tanzania, the United Republic of</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="O153" t="n">
-        <v>33</v>
+        <v>234472</v>
       </c>
       <c r="P153" t="n">
         <v>0</v>
       </c>
       <c r="Q153" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="R153" t="n">
-        <v>1046.83</v>
+        <v>13713259.84</v>
       </c>
       <c r="S153" t="n">
         <v>0</v>
       </c>
       <c r="T153" t="n">
-        <v>0</v>
+        <v>10127</v>
       </c>
       <c r="U153" t="inlineStr"/>
     </row>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>UG</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -7863,16 +7863,16 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Tajlandia</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="O154" t="n">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="P154" t="n">
         <v>0</v>
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="R154" t="n">
-        <v>26405.61</v>
+        <v>776.47</v>
       </c>
       <c r="S154" t="n">
         <v>0</v>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -7912,16 +7912,16 @@
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Trynidad i Tobago</t>
+          <t>Stany Zjednoczone Ameryki Polnocnej lacznie z Portoryko i Navassa</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>United States of America (the)</t>
         </is>
       </c>
       <c r="O155" t="n">
-        <v>11</v>
+        <v>56246</v>
       </c>
       <c r="P155" t="n">
         <v>0</v>
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="R155" t="n">
-        <v>1370.42</v>
+        <v>6000319.64</v>
       </c>
       <c r="S155" t="n">
         <v>0</v>
@@ -7946,7 +7946,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>UY</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -7961,16 +7961,16 @@
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Tunezja</t>
+          <t>Urugwaj</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="O156" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="P156" t="n">
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="R156" t="n">
-        <v>220.17</v>
+        <v>1949.35</v>
       </c>
       <c r="S156" t="n">
         <v>0</v>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>UZ</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -8010,16 +8010,16 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Turcja</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="O157" t="n">
-        <v>3506</v>
+        <v>211</v>
       </c>
       <c r="P157" t="n">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="R157" t="n">
-        <v>227800.59</v>
+        <v>13482.7</v>
       </c>
       <c r="S157" t="n">
         <v>0</v>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -8059,16 +8059,16 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Watykan</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Holy See (the)</t>
         </is>
       </c>
       <c r="O158" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P158" t="n">
         <v>0</v>
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="R158" t="n">
-        <v>154.99</v>
+        <v>2130.6</v>
       </c>
       <c r="S158" t="n">
         <v>0</v>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>VN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -8108,16 +8108,16 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Wyspy Turks i Caicos</t>
+          <t>Wietnam</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>Turks and Caicos Islands (the)</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="O159" t="n">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="P159" t="n">
         <v>0</v>
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="R159" t="n">
-        <v>903</v>
+        <v>9077.43</v>
       </c>
       <c r="S159" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>UG</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -8157,16 +8157,16 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Republika Poludniowej Afryki</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="O160" t="n">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="P160" t="n">
         <v>0</v>
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="R160" t="n">
-        <v>5189.11</v>
+        <v>20826.38</v>
       </c>
       <c r="S160" t="n">
         <v>0</v>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -8206,31 +8206,31 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Ukraina</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="O161" t="n">
-        <v>291474</v>
+        <v>6</v>
       </c>
       <c r="P161" t="n">
         <v>0</v>
       </c>
       <c r="Q161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R161" t="n">
-        <v>16760075.96</v>
+        <v>514.16</v>
       </c>
       <c r="S161" t="n">
         <v>0</v>
       </c>
       <c r="T161" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U161" t="inlineStr"/>
     </row>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>ZW</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -8255,16 +8255,16 @@
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr">
         <is>
-          <t>Zjednoczone Emiraty Arabskie</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>United Arab Emirates (the)</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="O162" t="n">
-        <v>6359</v>
+        <v>53</v>
       </c>
       <c r="P162" t="n">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="R162" t="n">
-        <v>2306450.42</v>
+        <v>1911.58</v>
       </c>
       <c r="S162" t="n">
         <v>0</v>
@@ -8287,11 +8287,7 @@
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -8302,45 +8298,21 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>Stany Zjednoczone Ameryki Polnocnej lacznie z Portoryko i Navassa</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>United States of America (the)</t>
-        </is>
-      </c>
-      <c r="O163" t="n">
-        <v>76396</v>
-      </c>
-      <c r="P163" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q163" t="n">
-        <v>1</v>
-      </c>
-      <c r="R163" t="n">
-        <v>10445015.98</v>
-      </c>
-      <c r="S163" t="n">
-        <v>0</v>
-      </c>
-      <c r="T163" t="n">
-        <v>500</v>
-      </c>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>UY</t>
-        </is>
-      </c>
+      <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -8351,45 +8323,21 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>Urugwaj</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="O164" t="n">
-        <v>84</v>
-      </c>
-      <c r="P164" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>0</v>
-      </c>
-      <c r="R164" t="n">
-        <v>4563.39</v>
-      </c>
-      <c r="S164" t="n">
-        <v>0</v>
-      </c>
-      <c r="T164" t="n">
-        <v>0</v>
-      </c>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>UZ</t>
-        </is>
-      </c>
+      <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
@@ -8400,45 +8348,21 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>Uzbekistan</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>Uzbekistan</t>
-        </is>
-      </c>
-      <c r="O165" t="n">
-        <v>186</v>
-      </c>
-      <c r="P165" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>0</v>
-      </c>
-      <c r="R165" t="n">
-        <v>20575.4</v>
-      </c>
-      <c r="S165" t="n">
-        <v>0</v>
-      </c>
-      <c r="T165" t="n">
-        <v>0</v>
-      </c>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>VE</t>
-        </is>
-      </c>
+      <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -8449,45 +8373,21 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>Wenezuela</t>
-        </is>
-      </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>Venezuela (Bolivarian Republic of)</t>
-        </is>
-      </c>
-      <c r="O166" t="n">
-        <v>2</v>
-      </c>
-      <c r="P166" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>0</v>
-      </c>
-      <c r="R166" t="n">
-        <v>609.5</v>
-      </c>
-      <c r="S166" t="n">
-        <v>0</v>
-      </c>
-      <c r="T166" t="n">
-        <v>0</v>
-      </c>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>VN</t>
-        </is>
-      </c>
+      <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -8498,45 +8398,21 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>Wietnam</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>Viet Nam</t>
-        </is>
-      </c>
-      <c r="O167" t="n">
-        <v>129</v>
-      </c>
-      <c r="P167" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>0</v>
-      </c>
-      <c r="R167" t="n">
-        <v>23825.95</v>
-      </c>
-      <c r="S167" t="n">
-        <v>0</v>
-      </c>
-      <c r="T167" t="n">
-        <v>0</v>
-      </c>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>VG</t>
-        </is>
-      </c>
+      <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -8547,45 +8423,21 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>Brytyjskie Wyspy Dziewicze</t>
-        </is>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>Virgin Islands (British)</t>
-        </is>
-      </c>
-      <c r="O168" t="n">
-        <v>2</v>
-      </c>
-      <c r="P168" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>0</v>
-      </c>
-      <c r="R168" t="n">
-        <v>24</v>
-      </c>
-      <c r="S168" t="n">
-        <v>0</v>
-      </c>
-      <c r="T168" t="n">
-        <v>0</v>
-      </c>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>ZM</t>
-        </is>
-      </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
@@ -8596,45 +8448,21 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="O169" t="n">
-        <v>17</v>
-      </c>
-      <c r="P169" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q169" t="n">
-        <v>0</v>
-      </c>
-      <c r="R169" t="n">
-        <v>1091.8</v>
-      </c>
-      <c r="S169" t="n">
-        <v>0</v>
-      </c>
-      <c r="T169" t="n">
-        <v>0</v>
-      </c>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>ZW</t>
-        </is>
-      </c>
+      <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
@@ -8645,34 +8473,14 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="O170" t="n">
-        <v>27</v>
-      </c>
-      <c r="P170" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q170" t="n">
-        <v>0</v>
-      </c>
-      <c r="R170" t="n">
-        <v>16294.24</v>
-      </c>
-      <c r="S170" t="n">
-        <v>0</v>
-      </c>
-      <c r="T170" t="n">
-        <v>0</v>
-      </c>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr"/>
     </row>
     <row r="171">
